--- a/sriramModel-nelson-atypical-patientID_12-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_12-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.179215235864725</v>
+        <v>2.266793276336486</v>
       </c>
       <c r="C2">
-        <v>2.251584615368022</v>
+        <v>2.179320608826391</v>
       </c>
       <c r="D2">
-        <v>2.207881968130759</v>
+        <v>2.245838317371642</v>
       </c>
       <c r="E2">
-        <v>2.176876215381341</v>
+        <v>2.27209199102251</v>
       </c>
       <c r="F2">
-        <v>2.261010163385759</v>
+        <v>2.272800694467977</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.354867933151009</v>
+        <v>2.521016672381577</v>
       </c>
       <c r="C3">
-        <v>2.490468351899251</v>
+        <v>2.354419606574262</v>
       </c>
       <c r="D3">
-        <v>2.40709288157916</v>
+        <v>2.482180555349719</v>
       </c>
       <c r="E3">
-        <v>2.348053476929064</v>
+        <v>2.529533115434901</v>
       </c>
       <c r="F3">
-        <v>2.509031725861421</v>
+        <v>2.530688826307873</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.52705150806398</v>
+        <v>2.76340525330516</v>
       </c>
       <c r="C4">
-        <v>2.717366338864911</v>
+        <v>2.525530900469187</v>
       </c>
       <c r="D4">
-        <v>2.598081550879172</v>
+        <v>2.709538704635855</v>
       </c>
       <c r="E4">
-        <v>2.513794957482931</v>
+        <v>2.773210993908906</v>
       </c>
       <c r="F4">
-        <v>2.744824394403123</v>
+        <v>2.774571368537597</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.695856645021614</v>
+        <v>2.994656794120051</v>
       </c>
       <c r="C5">
-        <v>2.932959767398855</v>
+        <v>2.692879017366048</v>
       </c>
       <c r="D5">
-        <v>2.781279561128716</v>
+        <v>2.928400462568681</v>
       </c>
       <c r="E5">
-        <v>2.67435466895769</v>
+        <v>3.003969335927793</v>
       </c>
       <c r="F5">
-        <v>2.969110533118171</v>
+        <v>3.005310474920363</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.861371441787935</v>
+        <v>3.215433573607855</v>
       </c>
       <c r="C6">
-        <v>3.137897759014612</v>
+        <v>2.856679308950339</v>
       </c>
       <c r="D6">
-        <v>2.957101572265564</v>
+        <v>3.13923075871178</v>
       </c>
       <c r="E6">
-        <v>2.829978584231108</v>
+        <v>3.222610070046814</v>
       </c>
       <c r="F6">
-        <v>3.182577287985398</v>
+        <v>3.223725465265613</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023681550928111</v>
+        <v>3.426365141842003</v>
       </c>
       <c r="C7">
-        <v>3.332798696169396</v>
+        <v>3.017138162744536</v>
       </c>
       <c r="D7">
-        <v>3.125946458597612</v>
+        <v>3.34247270047723</v>
       </c>
       <c r="E7">
-        <v>2.980904419091533</v>
+        <v>3.42989579114178</v>
       </c>
       <c r="F7">
-        <v>3.385878215185961</v>
+        <v>3.430595336766912</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.182870270706159</v>
+        <v>3.628049659356075</v>
       </c>
       <c r="C8">
-        <v>3.518252059122881</v>
+        <v>3.174453607928037</v>
       </c>
       <c r="D8">
-        <v>3.288197852878312</v>
+        <v>3.538548676491876</v>
       </c>
       <c r="E8">
-        <v>3.127362182976445</v>
+        <v>3.626551237613932</v>
       </c>
       <c r="F8">
-        <v>3.579634981240426</v>
+        <v>3.626660748639886</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.339018607643122</v>
+        <v>3.821055215079606</v>
       </c>
       <c r="C9">
-        <v>3.694819596454084</v>
+        <v>3.328815505245439</v>
       </c>
       <c r="D9">
-        <v>3.444224721964543</v>
+        <v>3.727861342843002</v>
       </c>
       <c r="E9">
-        <v>3.269574438709316</v>
+        <v>3.813265435101284</v>
       </c>
       <c r="F9">
-        <v>3.764439010979601</v>
+        <v>3.812625758550839</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.492205339458717</v>
+        <v>4.00592173395829</v>
       </c>
       <c r="C10">
-        <v>3.863036709795277</v>
+        <v>3.480405748594342</v>
       </c>
       <c r="D10">
-        <v>3.594382005441373</v>
+        <v>3.910794555377883</v>
       </c>
       <c r="E10">
-        <v>3.407756370457671</v>
+        <v>3.990693623789239</v>
       </c>
       <c r="F10">
-        <v>3.940852863253733</v>
+        <v>3.989159709351268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.642507077091378</v>
+        <v>4.183162228220271</v>
       </c>
       <c r="C11">
-        <v>4.023413568669258</v>
+        <v>3.629398533044288</v>
       </c>
       <c r="D11">
-        <v>3.739011147445968</v>
+        <v>4.087713815732622</v>
       </c>
       <c r="E11">
-        <v>3.54211627161976</v>
+        <v>4.159458587377999</v>
       </c>
       <c r="F11">
-        <v>4.109411605306698</v>
+        <v>4.156899008601169</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.789998326442595</v>
+        <v>4.353264126365862</v>
       </c>
       <c r="C12">
-        <v>4.176436329654417</v>
+        <v>3.775960611885279</v>
       </c>
       <c r="D12">
-        <v>3.878440610015129</v>
+        <v>4.258967639338863</v>
       </c>
       <c r="E12">
-        <v>3.672855715245587</v>
+        <v>4.320152357520651</v>
       </c>
       <c r="F12">
-        <v>4.270624134562953</v>
+        <v>4.316448716478656</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.934751549357546</v>
+        <v>4.516690617743889</v>
       </c>
       <c r="C13">
-        <v>4.322568358691081</v>
+        <v>3.920251525395601</v>
       </c>
       <c r="D13">
-        <v>4.01298638432885</v>
+        <v>4.424888379790436</v>
       </c>
       <c r="E13">
-        <v>3.800169633493719</v>
+        <v>4.473337745247491</v>
       </c>
       <c r="F13">
-        <v>4.424974497643368</v>
+        <v>4.468384041155863</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.076837221718744</v>
+        <v>4.673881883829069</v>
       </c>
       <c r="C14">
-        <v>4.462251251901731</v>
+        <v>4.062423808323117</v>
       </c>
       <c r="D14">
-        <v>4.142952472084222</v>
+        <v>4.585792700731971</v>
       </c>
       <c r="E14">
-        <v>3.924246548098022</v>
+        <v>4.619549806230213</v>
       </c>
       <c r="F14">
-        <v>4.572922968772629</v>
+        <v>4.613251847539759</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.216323907095251</v>
+        <v>4.82525620992192</v>
       </c>
       <c r="C15">
-        <v>4.595905774134502</v>
+        <v>4.202623188721317</v>
       </c>
       <c r="D15">
-        <v>4.268631349059115</v>
+        <v>4.741982218413847</v>
       </c>
       <c r="E15">
-        <v>4.045268822845853</v>
+        <v>4.759297066857664</v>
       </c>
       <c r="F15">
-        <v>4.714907156619765</v>
+        <v>4.751571962893012</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.353278290373366</v>
+        <v>4.971211056661314</v>
       </c>
       <c r="C16">
-        <v>4.723932819358094</v>
+        <v>4.340988782072448</v>
       </c>
       <c r="D16">
-        <v>4.390304401522566</v>
+        <v>4.893744324983635</v>
       </c>
       <c r="E16">
-        <v>4.163412828591971</v>
+        <v>4.893062844512059</v>
       </c>
       <c r="F16">
-        <v>4.851343067782787</v>
+        <v>4.883838568129586</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.487765230537579</v>
+        <v>5.112124097156911</v>
       </c>
       <c r="C17">
-        <v>4.846714345009115</v>
+        <v>4.477653282884401</v>
       </c>
       <c r="D17">
-        <v>4.508242345632114</v>
+        <v>5.041352799020808</v>
       </c>
       <c r="E17">
-        <v>4.278849203613303</v>
+        <v>5.021306626523274</v>
       </c>
       <c r="F17">
-        <v>4.982626109560538</v>
+        <v>5.010521433403562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.619847806375975</v>
+        <v>5.248354198511028</v>
       </c>
       <c r="C18">
-        <v>4.964614278305684</v>
+        <v>4.612743214680031</v>
       </c>
       <c r="D18">
-        <v>4.622705627812939</v>
+        <v>5.185068574370117</v>
       </c>
       <c r="E18">
-        <v>4.391742905886949</v>
+        <v>5.144465233137433</v>
       </c>
       <c r="F18">
-        <v>5.109132015305384</v>
+        <v>5.132067115140377</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.749587361188382</v>
+        <v>5.380242396592861</v>
       </c>
       <c r="C19">
-        <v>5.077979344177649</v>
+        <v>4.746378836794756</v>
       </c>
       <c r="D19">
-        <v>4.733944812524874</v>
+        <v>5.325140299380751</v>
       </c>
       <c r="E19">
-        <v>4.502253647732746</v>
+        <v>5.262953835422513</v>
       </c>
       <c r="F19">
-        <v>5.23121770560768</v>
+        <v>5.248900104352648</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.877043546804977</v>
+        <v>5.508112741932736</v>
       </c>
       <c r="C20">
-        <v>5.187139822020794</v>
+        <v>4.878674601890482</v>
       </c>
       <c r="D20">
-        <v>4.842200951814702</v>
+        <v>5.461804774250152</v>
       </c>
       <c r="E20">
-        <v>4.610535717324163</v>
+        <v>5.377166989098907</v>
       </c>
       <c r="F20">
-        <v>5.349222113790443</v>
+        <v>5.361423852306701</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.002274363613807</v>
+        <v>5.632273131346462</v>
       </c>
       <c r="C21">
-        <v>5.292410380005896</v>
+        <v>5.009739211735585</v>
       </c>
       <c r="D21">
-        <v>4.947705937637458</v>
+        <v>5.595287409454126</v>
       </c>
       <c r="E21">
-        <v>4.716738296887982</v>
+        <v>5.487479664520491</v>
       </c>
       <c r="F21">
-        <v>5.463466967744919</v>
+        <v>5.470021843283905</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.125336195553327</v>
+        <v>5.753016110606421</v>
       </c>
       <c r="C22">
-        <v>5.394090687710017</v>
+        <v>5.139675808717676</v>
       </c>
       <c r="D22">
-        <v>5.050682838026925</v>
+        <v>5.725802881346954</v>
       </c>
       <c r="E22">
-        <v>4.821005607558098</v>
+        <v>5.594248242482002</v>
       </c>
       <c r="F22">
-        <v>5.574257517135218</v>
+        <v>5.575058556101814</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.246283841821892</v>
+        <v>5.870619650255914</v>
       </c>
       <c r="C23">
-        <v>5.492466148231173</v>
+        <v>5.268582082844921</v>
       </c>
       <c r="D23">
-        <v>5.151346223959917</v>
+        <v>5.853555640053912</v>
       </c>
       <c r="E23">
-        <v>4.923477069820864</v>
+        <v>5.697811398234964</v>
       </c>
       <c r="F23">
-        <v>5.681883213583781</v>
+        <v>5.676880490016417</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.365170545356804</v>
+        <v>5.985347834764704</v>
       </c>
       <c r="C24">
-        <v>5.587808570455636</v>
+        <v>5.396550351121594</v>
       </c>
       <c r="D24">
-        <v>5.249902475046894</v>
+        <v>5.97874037733644</v>
       </c>
       <c r="E24">
-        <v>5.024287497341976</v>
+        <v>5.798491018905731</v>
       </c>
       <c r="F24">
-        <v>5.786618344420584</v>
+        <v>5.775816822101459</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.482048016203557</v>
+        <v>6.097451570847709</v>
       </c>
       <c r="C25">
-        <v>5.680376777480446</v>
+        <v>5.52366773172694</v>
       </c>
       <c r="D25">
-        <v>5.346550075001007</v>
+        <v>6.10154248978979</v>
       </c>
       <c r="E25">
-        <v>5.123567177750527</v>
+        <v>5.896592979814039</v>
       </c>
       <c r="F25">
-        <v>5.888722624924524</v>
+        <v>5.872180314176917</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.596966450834698</v>
+        <v>6.207169230434331</v>
       </c>
       <c r="C26">
-        <v>5.770417197754956</v>
+        <v>5.650016264006099</v>
       </c>
       <c r="D26">
-        <v>5.441479890594153</v>
+        <v>6.222138436639598</v>
       </c>
       <c r="E26">
-        <v>5.2214420108237</v>
+        <v>5.992407890342144</v>
       </c>
       <c r="F26">
-        <v>5.988441747581347</v>
+        <v>5.966268197188895</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.709974546414005</v>
+        <v>6.314727289832546</v>
       </c>
       <c r="C27">
-        <v>5.858164438831497</v>
+        <v>5.775673034164815</v>
       </c>
       <c r="D27">
-        <v>5.534875439527949</v>
+        <v>6.340696159224389</v>
       </c>
       <c r="E27">
-        <v>5.318033625329207</v>
+        <v>6.086211891794827</v>
       </c>
       <c r="F27">
-        <v>6.086007889653725</v>
+        <v>6.058362933634669</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.821119508339103</v>
+        <v>6.420340878741489</v>
       </c>
       <c r="C28">
-        <v>5.943841839187485</v>
+        <v>5.900710293698626</v>
       </c>
       <c r="D28">
-        <v>5.626913138601184</v>
+        <v>6.457375490248496</v>
       </c>
       <c r="E28">
-        <v>5.413459489646186</v>
+        <v>6.178267335924644</v>
       </c>
       <c r="F28">
-        <v>6.181640178698418</v>
+        <v>6.148732960499228</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.930447051527161</v>
+        <v>6.524214352296416</v>
       </c>
       <c r="C29">
-        <v>6.027661937618473</v>
+        <v>6.025195550324959</v>
       </c>
       <c r="D29">
-        <v>5.717762540564094</v>
+        <v>6.572328519749954</v>
       </c>
       <c r="E29">
-        <v>5.507833035536477</v>
+        <v>6.268823454132833</v>
       </c>
       <c r="F29">
-        <v>6.275545117579834</v>
+        <v>6.237633368805502</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6.038001394321443</v>
+        <v>6.626541829920071</v>
       </c>
       <c r="C30">
-        <v>6.109826978748942</v>
+        <v>6.149191661030478</v>
       </c>
       <c r="D30">
-        <v>5.807586554279172</v>
+        <v>6.685699961871709</v>
       </c>
       <c r="E30">
-        <v>5.601263757615753</v>
+        <v>6.35811700261752</v>
       </c>
       <c r="F30">
-        <v>6.367916969880616</v>
+        <v>6.325306418766761</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.143825241138412</v>
+        <v>6.72750770333305</v>
       </c>
       <c r="C31">
-        <v>6.190529394579809</v>
+        <v>6.272756924477508</v>
       </c>
       <c r="D31">
-        <v>5.896541648227507</v>
+        <v>6.797627487604936</v>
       </c>
       <c r="E31">
-        <v>5.69385730353831</v>
+        <v>6.446372909314842</v>
       </c>
       <c r="F31">
-        <v>6.458938106062035</v>
+        <v>6.411982209361877</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.247959757040729</v>
+        <v>6.82728709361882</v>
       </c>
       <c r="C32">
-        <v>6.269952205386329</v>
+        <v>6.395945166136024</v>
       </c>
       <c r="D32">
-        <v>5.984778036188355</v>
+        <v>6.908242039564724</v>
       </c>
       <c r="E32">
-        <v>5.785715559692826</v>
+        <v>6.533804783183824</v>
       </c>
       <c r="F32">
-        <v>6.548779310652684</v>
+        <v>6.497879297617358</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.350444535534261</v>
+        <v>6.926046316593356</v>
       </c>
       <c r="C33">
-        <v>6.348269444577014</v>
+        <v>6.51880581939013</v>
       </c>
       <c r="D33">
-        <v>6.072439843066214</v>
+        <v>7.017668141626774</v>
       </c>
       <c r="E33">
-        <v>5.876936708736614</v>
+        <v>6.620615485282872</v>
       </c>
       <c r="F33">
-        <v>6.637600050899491</v>
+        <v>6.583205251728277</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.451317547513246</v>
+        <v>7.023943315836944</v>
       </c>
       <c r="C34">
-        <v>6.425646566812619</v>
+        <v>6.641383998898585</v>
       </c>
       <c r="D34">
-        <v>6.159665249338313</v>
+        <v>7.126024192917707</v>
       </c>
       <c r="E34">
-        <v>5.967615295166842</v>
+        <v>6.706997675474855</v>
       </c>
       <c r="F34">
-        <v>6.725548707374365</v>
+        <v>6.668157211060356</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.550615083423708</v>
+        <v>7.121128072985189</v>
       </c>
       <c r="C35">
-        <v>6.502240790990091</v>
+        <v>6.763720564353144</v>
       </c>
       <c r="D35">
-        <v>6.246586613862618</v>
+        <v>7.23342274908535</v>
       </c>
       <c r="E35">
-        <v>6.057842264041819</v>
+        <v>6.793134258558753</v>
       </c>
       <c r="F35">
-        <v>6.812762767000357</v>
+        <v>6.752922362343067</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.648371670993203</v>
+        <v>7.217742986527973</v>
       </c>
       <c r="C36">
-        <v>6.578201442323381</v>
+        <v>6.885852179090884</v>
       </c>
       <c r="D36">
-        <v>6.333330569590299</v>
+        <v>7.339970792934975</v>
       </c>
       <c r="E36">
-        <v>6.147704992086698</v>
+        <v>6.879198870406016</v>
       </c>
       <c r="F36">
-        <v>6.899368978979321</v>
+        <v>6.837678410446234</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.744619984947893</v>
+        <v>7.313923246320948</v>
       </c>
       <c r="C37">
-        <v>6.653670285086197</v>
+        <v>7.007811362184595</v>
       </c>
       <c r="D37">
-        <v>6.420018085263415</v>
+        <v>7.445769985632621</v>
       </c>
       <c r="E37">
-        <v>6.237287290849607</v>
+        <v>6.965356340995585</v>
       </c>
       <c r="F37">
-        <v>6.985483474204624</v>
+        <v>6.922594033548599</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.839390736814439</v>
+        <v>7.409797187518902</v>
       </c>
       <c r="C38">
-        <v>6.728781817087406</v>
+        <v>7.129626534651039</v>
       </c>
       <c r="D38">
-        <v>6.506764494022538</v>
+        <v>7.550916910273607</v>
       </c>
       <c r="E38">
-        <v>6.326669388769955</v>
+        <v>7.051763092340623</v>
       </c>
       <c r="F38">
-        <v>7.071211848894524</v>
+        <v>7.00782931147647</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.932712543895065</v>
+        <v>7.505486618801489</v>
       </c>
       <c r="C39">
-        <v>6.803663523162099</v>
+        <v>7.251322058928689</v>
       </c>
       <c r="D39">
-        <v>6.593679482241036</v>
+        <v>7.655503303234173</v>
       </c>
       <c r="E39">
-        <v>6.415927889444948</v>
+        <v>7.138567534184992</v>
       </c>
       <c r="F39">
-        <v>7.156649213377688</v>
+        <v>7.093536142053973</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.024611786097592</v>
+        <v>7.601107129459676</v>
       </c>
       <c r="C40">
-        <v>6.878436123986403</v>
+        <v>7.372918270107143</v>
       </c>
       <c r="D40">
-        <v>6.680867031983333</v>
+        <v>7.759616273927064</v>
       </c>
       <c r="E40">
-        <v>6.505135698100474</v>
+        <v>7.225910457790669</v>
       </c>
       <c r="F40">
-        <v>7.241880207223357</v>
+        <v>7.179858624097426</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.11511242807092</v>
+        <v>7.696768389110659</v>
       </c>
       <c r="C41">
-        <v>6.953213819753752</v>
+        <v>7.494431500957653</v>
       </c>
       <c r="D41">
-        <v>6.768425306842722</v>
+        <v>7.86333851778678</v>
       </c>
       <c r="E41">
-        <v>6.594361922468875</v>
+        <v>7.313925385961865</v>
       </c>
       <c r="F41">
-        <v>7.326978982245462</v>
+        <v>7.266933422532548</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.204235830323742</v>
+        <v>7.792574432525323</v>
       </c>
       <c r="C42">
-        <v>7.028104431592305</v>
+        <v>7.615874098871888</v>
       </c>
       <c r="D42">
-        <v>6.856446485473198</v>
+        <v>7.966748513520112</v>
       </c>
       <c r="E42">
-        <v>6.683671708893844</v>
+        <v>7.4027388959365</v>
       </c>
       <c r="F42">
-        <v>7.412009155322857</v>
+        <v>7.354890112405132</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.292000532873971</v>
+        <v>7.88862391787563</v>
       </c>
       <c r="C43">
-        <v>7.103209561765195</v>
+        <v>7.737254434388134</v>
       </c>
       <c r="D43">
-        <v>6.945016506123782</v>
+        <v>8.069920712865628</v>
       </c>
       <c r="E43">
-        <v>6.773126050422097</v>
+        <v>7.49247094600641</v>
       </c>
       <c r="F43">
-        <v>7.497023733475714</v>
+        <v>7.443851502213288</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.378422022748198</v>
+        <v>7.985010372570454</v>
       </c>
       <c r="C44">
-        <v>7.178624733188228</v>
+        <v>7.85857690486228</v>
       </c>
       <c r="D44">
-        <v>7.034214736760614</v>
+        <v>8.17292572280348</v>
       </c>
       <c r="E44">
-        <v>6.862781527420899</v>
+        <v>7.583235190284204</v>
       </c>
       <c r="F44">
-        <v>7.582065014237113</v>
+        <v>7.53393394461656</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.463512487900535</v>
+        <v>8.081822423988701</v>
       </c>
       <c r="C45">
-        <v>7.254439425416718</v>
+        <v>7.979841924270645</v>
       </c>
       <c r="D45">
-        <v>7.124113547191575</v>
+        <v>8.275830476505647</v>
       </c>
       <c r="E45">
-        <v>6.952690012203892</v>
+        <v>7.675139227259741</v>
       </c>
       <c r="F45">
-        <v>7.667164465068376</v>
+        <v>7.625247619371242</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.547280542878394</v>
+        <v>8.17914402372578</v>
       </c>
       <c r="C46">
-        <v>7.330737089623258</v>
+        <v>8.10104590880468</v>
       </c>
       <c r="D46">
-        <v>7.214777769966783</v>
+        <v>8.378698396523667</v>
       </c>
       <c r="E46">
-        <v>7.042898259068239</v>
+        <v>7.768284873590858</v>
       </c>
       <c r="F46">
-        <v>7.752342586387687</v>
+        <v>7.717896805360864</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.629730943943645</v>
+        <v>8.277054640866595</v>
       </c>
       <c r="C47">
-        <v>7.40759506943813</v>
+        <v>8.22218125191497</v>
       </c>
       <c r="D47">
-        <v>7.306264035733336</v>
+        <v>8.481589548568261</v>
       </c>
       <c r="E47">
-        <v>7.133447435912316</v>
+        <v>7.862768425194632</v>
       </c>
       <c r="F47">
-        <v>7.837608763713522</v>
+        <v>7.811980132873594</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.710864305115733</v>
+        <v>8.375629446733512</v>
       </c>
       <c r="C48">
-        <v>7.485084477750363</v>
+        <v>8.343236288782997</v>
       </c>
       <c r="D48">
-        <v>7.398619965406719</v>
+        <v>8.584560784530485</v>
       </c>
       <c r="E48">
-        <v>7.224372562919336</v>
+        <v>7.958680853075721</v>
       </c>
       <c r="F48">
-        <v>7.922961115469171</v>
+        <v>7.907590814644435</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.790676811800076</v>
+        <v>8.474939482215214</v>
       </c>
       <c r="C49">
-        <v>7.5632699743679</v>
+        <v>8.464195254835579</v>
       </c>
       <c r="D49">
-        <v>7.491883214580634</v>
+        <v>8.687665879472341</v>
       </c>
       <c r="E49">
-        <v>7.315701862192475</v>
+        <v>8.05610801688325</v>
       </c>
       <c r="F49">
-        <v>8.008386344148546</v>
+        <v>8.004816864576817</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.869159944359429</v>
+        <v>8.575051816272657</v>
       </c>
       <c r="C50">
-        <v>7.642209409182708</v>
+        <v>8.585038229438331</v>
       </c>
       <c r="D50">
-        <v>7.586080353718407</v>
+        <v>8.790955658551185</v>
       </c>
       <c r="E50">
-        <v>7.407456005082038</v>
+        <v>8.155130867074229</v>
       </c>
       <c r="F50">
-        <v>8.09385959979336</v>
+        <v>8.103741290253124</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.946300220168479</v>
+        <v>8.676029668078639</v>
       </c>
       <c r="C51">
-        <v>7.721953312738249</v>
+        <v>8.705741070539043</v>
       </c>
       <c r="D51">
-        <v>7.681225551437892</v>
+        <v>8.894478113819495</v>
       </c>
       <c r="E51">
-        <v>7.49964720368661</v>
+        <v>8.255825591827078</v>
       </c>
       <c r="F51">
-        <v>8.179344366298817</v>
+        <v>8.204442268569402</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.022078964229621</v>
+        <v>8.777932520240645</v>
       </c>
       <c r="C52">
-        <v>7.802544253367055</v>
+        <v>8.826275339143352</v>
       </c>
       <c r="D52">
-        <v>7.777319141212685</v>
+        <v>8.99827851446879</v>
       </c>
       <c r="E52">
-        <v>7.592278251852014</v>
+        <v>8.35826375803931</v>
       </c>
       <c r="F52">
-        <v>8.264792385426524</v>
+        <v>8.306993301454337</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.096691642912621</v>
+        <v>8.88081620674601</v>
       </c>
       <c r="C53">
-        <v>7.884230417886155</v>
+        <v>8.946608211868618</v>
       </c>
       <c r="D53">
-        <v>7.874537438805403</v>
+        <v>9.102399500606749</v>
       </c>
       <c r="E53">
-        <v>7.685469511172062</v>
+        <v>8.462512443877548</v>
       </c>
       <c r="F53">
-        <v>8.350369500785584</v>
+        <v>8.411463346112155</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.17115981563842</v>
+        <v>8.984732989639943</v>
       </c>
       <c r="C54">
-        <v>7.9680793717242</v>
+        <v>9.066702383712702</v>
       </c>
       <c r="D54">
-        <v>7.973775643749983</v>
+        <v>9.206881170454949</v>
       </c>
       <c r="E54">
-        <v>7.779823086857626</v>
+        <v>8.5686343273709</v>
       </c>
       <c r="F54">
-        <v>8.437080003919611</v>
+        <v>8.517916923400453</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.246594691632033</v>
+        <v>9.089731580788134</v>
       </c>
       <c r="C55">
-        <v>8.055284157268378</v>
+        <v>9.186515959119586</v>
       </c>
       <c r="D55">
-        <v>8.076010612457242</v>
+        <v>9.311761150697963</v>
       </c>
       <c r="E55">
-        <v>7.876002303487049</v>
+        <v>8.676687729559671</v>
       </c>
       <c r="F55">
-        <v>8.526004833773476</v>
+        <v>8.626414194700514</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.323969394560276</v>
+        <v>9.195857146732324</v>
       </c>
       <c r="C56">
-        <v>8.146936548208338</v>
+        <v>9.306002330310889</v>
       </c>
       <c r="D56">
-        <v>8.182094140283301</v>
+        <v>9.417074646387817</v>
       </c>
       <c r="E56">
-        <v>7.974593775872343</v>
+        <v>8.786726674757952</v>
       </c>
       <c r="F56">
-        <v>8.618063001606044</v>
+        <v>8.737011000932098</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.40411992933795</v>
+        <v>9.303151265219732</v>
       </c>
       <c r="C57">
-        <v>8.244020647771853</v>
+        <v>9.425110049211677</v>
       </c>
       <c r="D57">
-        <v>8.292742730915586</v>
+        <v>9.522854479320776</v>
       </c>
       <c r="E57">
-        <v>8.076101757292992</v>
+        <v>8.898800820691623</v>
       </c>
       <c r="F57">
-        <v>8.714015010916311</v>
+        <v>8.849758867615156</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.487745066809872</v>
+        <v>9.411651863939753</v>
       </c>
       <c r="C58">
-        <v>8.347403607178235</v>
+        <v>9.543782690127212</v>
       </c>
       <c r="D58">
-        <v>8.408528709625704</v>
+        <v>9.629131095676833</v>
       </c>
       <c r="E58">
-        <v>8.18094224170571</v>
+        <v>9.012955402064666</v>
       </c>
       <c r="F58">
-        <v>8.814465989553645</v>
+        <v>8.964704956937467</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.575406150472327</v>
+        <v>9.521393046727463</v>
       </c>
       <c r="C59">
-        <v>8.45782294722267</v>
+        <v>9.661958703509971</v>
       </c>
       <c r="D59">
-        <v>8.52987082126519</v>
+        <v>9.735932540478258</v>
       </c>
       <c r="E59">
-        <v>8.289437436820796</v>
+        <v>9.129231104684855</v>
       </c>
       <c r="F59">
-        <v>8.919868924798552</v>
+        <v>9.081891985876499</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.667527441301429</v>
+        <v>9.632404883103119</v>
       </c>
       <c r="C60">
-        <v>8.575871584300497</v>
+        <v>9.779571278538207</v>
       </c>
       <c r="D60">
-        <v>8.657026149854831</v>
+        <v>9.843284380500013</v>
       </c>
       <c r="E60">
-        <v>8.401810785482613</v>
+        <v>9.247663841947388</v>
       </c>
       <c r="F60">
-        <v>9.030528717228682</v>
+        <v>9.20135799308048</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.764397400920645</v>
+        <v>9.744713136104822</v>
       </c>
       <c r="C61">
-        <v>8.701979687458163</v>
+        <v>9.896548201998312</v>
       </c>
       <c r="D61">
-        <v>8.790084593352766</v>
+        <v>9.95120957991829</v>
       </c>
       <c r="E61">
-        <v>8.51818319596668</v>
+        <v>9.368284418774056</v>
       </c>
       <c r="F61">
-        <v>9.146606909504465</v>
+        <v>9.32313607716125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.866171287596599</v>
+        <v>9.858338760725616</v>
       </c>
       <c r="C62">
-        <v>8.836394831907651</v>
+        <v>10.01281171259891</v>
       </c>
       <c r="D62">
-        <v>8.928966234076615</v>
+        <v>10.05972828675547</v>
       </c>
       <c r="E62">
-        <v>8.63857095230658</v>
+        <v>9.49111805977711</v>
       </c>
       <c r="F62">
-        <v>9.268127370873291</v>
+        <v>9.447253991543368</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.972875317329294</v>
+        <v>9.973297353166112</v>
       </c>
       <c r="C63">
-        <v>8.979161716819103</v>
+        <v>10.1282783966813</v>
       </c>
       <c r="D63">
-        <v>9.073423153981294</v>
+        <v>10.16885747009897</v>
       </c>
       <c r="E63">
-        <v>8.762885898620238</v>
+        <v>9.616183757655863</v>
       </c>
       <c r="F63">
-        <v>9.394983079186618</v>
+        <v>9.573733550531568</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.084412591723998</v>
+        <v>10.08959840567678</v>
       </c>
       <c r="C64">
-        <v>9.130104139932463</v>
+        <v>10.24285909917157</v>
       </c>
       <c r="D64">
-        <v>9.22304658823751</v>
+        <v>10.2786104275012</v>
       </c>
       <c r="E64">
-        <v>8.890938331685605</v>
+        <v>9.743493375835136</v>
       </c>
       <c r="F64">
-        <v>9.526944149716881</v>
+        <v>9.702589792103304</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.20057093270178</v>
+        <v>10.20724428836563</v>
       </c>
       <c r="C65">
-        <v>9.288812493193335</v>
+        <v>10.35645890916785</v>
       </c>
       <c r="D65">
-        <v>9.377279986693022</v>
+        <v>10.38899603370633</v>
       </c>
       <c r="E65">
-        <v>9.022442951978887</v>
+        <v>9.873050458785546</v>
       </c>
       <c r="F65">
-        <v>9.663667268490373</v>
+        <v>9.833829817567391</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.321032666429918</v>
+        <v>10.32622889856085</v>
       </c>
       <c r="C66">
-        <v>9.454640649894777</v>
+        <v>10.46897719109226</v>
       </c>
       <c r="D66">
-        <v>9.535438159321176</v>
+        <v>10.50001765221407</v>
       </c>
       <c r="E66">
-        <v>9.157027933785367</v>
+        <v>10.00484848662446</v>
       </c>
       <c r="F66">
-        <v>9.804706547092795</v>
+        <v>9.967451173679343</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.445386305652134</v>
+        <v>10.44653591062835</v>
       </c>
       <c r="C67">
-        <v>9.626715860292542</v>
+        <v>10.58030771071207</v>
       </c>
       <c r="D67">
-        <v>9.696731934715002</v>
+        <v>10.61167158210052</v>
       </c>
       <c r="E67">
-        <v>9.294246930609058</v>
+        <v>10.13886853560828</v>
       </c>
       <c r="F67">
-        <v>9.949525912378824</v>
+        <v>10.10343963291816</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.573139963689847</v>
+        <v>10.56813650384329</v>
       </c>
       <c r="C68">
-        <v>9.803964001194915</v>
+        <v>10.69033889150115</v>
       </c>
       <c r="D68">
-        <v>9.860297147553782</v>
+        <v>10.72394489131061</v>
       </c>
       <c r="E68">
-        <v>9.433593606561194</v>
+        <v>10.27507618837713</v>
       </c>
       <c r="F68">
-        <v>10.09751311442596</v>
+        <v>10.24176590088211</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.703736221426176</v>
+        <v>10.69098623593032</v>
       </c>
       <c r="C69">
-        <v>9.985150175516203</v>
+        <v>10.79895422787158</v>
       </c>
       <c r="D69">
-        <v>10.02522612315771</v>
+        <v>10.83681244032781</v>
       </c>
       <c r="E69">
-        <v>9.574517819528124</v>
+        <v>10.41341721594213</v>
       </c>
       <c r="F69">
-        <v>10.24799479906292</v>
+        <v>10.38238114007705</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9.836568061054777</v>
+        <v>10.81502123468684</v>
       </c>
       <c r="C70">
-        <v>10.16893202303127</v>
+        <v>10.90603288527552</v>
       </c>
       <c r="D70">
-        <v>10.19059949281029</v>
+        <v>10.95023288457233</v>
       </c>
       <c r="E70">
-        <v>9.716442674626011</v>
+        <v>10.55381149875741</v>
       </c>
       <c r="F70">
-        <v>10.400252634544</v>
+        <v>10.52521072284536</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9.970995385644152</v>
+        <v>10.9401532070634</v>
       </c>
       <c r="C71">
-        <v>10.35392016069999</v>
+        <v>11.01145052088595</v>
       </c>
       <c r="D71">
-        <v>10.35551612030084</v>
+        <v>11.06414358508315</v>
       </c>
       <c r="E71">
-        <v>9.858781430934851</v>
+        <v>10.69614497823387</v>
       </c>
       <c r="F71">
-        <v>10.55354022848845</v>
+        <v>10.67014519168203</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.10636158169418</v>
+        <v>11.06626302859737</v>
       </c>
       <c r="C72">
-        <v>10.53873906912541</v>
+        <v>11.11508033233235</v>
       </c>
       <c r="D72">
-        <v>10.5191192126229</v>
+        <v>11.17845424495854</v>
       </c>
       <c r="E72">
-        <v>10.00095319540812</v>
+        <v>10.84025887112559</v>
       </c>
       <c r="F72">
-        <v>10.7071000713758</v>
+        <v>10.81702797125889</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10.24200955264824</v>
+        <v>11.19319294696754</v>
       </c>
       <c r="C73">
-        <v>10.72208168589066</v>
+        <v>11.21679436444637</v>
       </c>
       <c r="D73">
-        <v>10.6806172047848</v>
+        <v>11.29303944276495</v>
       </c>
       <c r="E73">
-        <v>10.14239684785296</v>
+        <v>10.98593554600293</v>
       </c>
       <c r="F73">
-        <v>10.86018012354014</v>
+        <v>10.96563895132276</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10.37729666462713</v>
+        <v>11.32073720478003</v>
       </c>
       <c r="C74">
-        <v>10.90275264306215</v>
+        <v>11.31646502606013</v>
       </c>
       <c r="D74">
-        <v>10.8392987117409</v>
+        <v>11.40773038408148</v>
       </c>
       <c r="E74">
-        <v>10.28258249296464</v>
+        <v>11.13288109918139</v>
       </c>
       <c r="F74">
-        <v>11.0120493628909</v>
+        <v>11.1156735849612</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.51160809966455</v>
+        <v>11.44863156811747</v>
       </c>
       <c r="C75">
-        <v>11.07969770793624</v>
+        <v>11.41396680714417</v>
       </c>
       <c r="D75">
-        <v>10.994541567218</v>
+        <v>11.52230664834001</v>
       </c>
       <c r="E75">
-        <v>10.42102017896674</v>
+        <v>11.2807055121663</v>
       </c>
       <c r="F75">
-        <v>11.16201173564579</v>
+        <v>11.26671885921443</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10.64436820150857</v>
+        <v>11.57654249964803</v>
       </c>
       <c r="C76">
-        <v>11.25201924603046</v>
+        <v>11.50917809517019</v>
       </c>
       <c r="D76">
-        <v>11.1458163749866</v>
+        <v>11.63648918361478</v>
       </c>
       <c r="E76">
-        <v>10.55726594497831</v>
+        <v>11.42890308180716</v>
       </c>
       <c r="F76">
-        <v>11.30941801336742</v>
+        <v>11.4182299126201</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.77504951650208</v>
+        <v>11.70405800799393</v>
       </c>
       <c r="C77">
-        <v>11.41897957080634</v>
+        <v>11.60198294947872</v>
       </c>
       <c r="D77">
-        <v>11.29268554501911</v>
+        <v>11.74993624676637</v>
       </c>
       <c r="E77">
-        <v>10.69092527773103</v>
+        <v>11.57683868295742</v>
       </c>
       <c r="F77">
-        <v>11.4536751761006</v>
+        <v>11.56951452540972</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.90317934869605</v>
+        <v>11.83068269904392</v>
       </c>
       <c r="C78">
-        <v>11.57999498499882</v>
+        <v>11.69227283308184</v>
       </c>
       <c r="D78">
-        <v>11.43479887651904</v>
+        <v>11.86224425760745</v>
       </c>
       <c r="E78">
-        <v>10.8216543467709</v>
+        <v>11.72374713414152</v>
       </c>
       <c r="F78">
-        <v>11.59425313060109</v>
+        <v>11.71973521371069</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>11.02834381983712</v>
+        <v>11.9558403983688</v>
       </c>
       <c r="C79">
-        <v>11.73462357861682</v>
+        <v>11.77994812995509</v>
       </c>
       <c r="D79">
-        <v>11.57188673207546</v>
+        <v>11.97295527931246</v>
       </c>
       <c r="E79">
-        <v>10.94915941753502</v>
+        <v>11.86875312300526</v>
       </c>
       <c r="F79">
-        <v>11.73068874370429</v>
+        <v>11.86793739983002</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>11.15018969064922</v>
+        <v>12.07888759997266</v>
       </c>
       <c r="C80">
-        <v>11.88254949628323</v>
+        <v>11.86491936165483</v>
       </c>
       <c r="D80">
-        <v>11.70375181376747</v>
+        <v>12.08157175580683</v>
       </c>
       <c r="E80">
-        <v>11.07319485685288</v>
+        <v>12.01091493286345</v>
       </c>
       <c r="F80">
-        <v>11.86258734836907</v>
+        <v>12.01310513552111</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11.26842383523237</v>
+        <v>12.19913894559677</v>
       </c>
       <c r="C81">
-        <v>12.02356583386617</v>
+        <v>11.94710807808119</v>
       </c>
       <c r="D81">
-        <v>11.83026031634926</v>
+        <v>12.18757769578338</v>
       </c>
       <c r="E81">
-        <v>11.19356015434979</v>
+        <v>12.14928670189213</v>
       </c>
       <c r="F81">
-        <v>11.98962201985723</v>
+        <v>12.15423527081118</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>11.3828108034157</v>
+        <v>12.31590286691198</v>
       </c>
       <c r="C82">
-        <v>12.15755767920517</v>
+        <v>12.02644741383589</v>
       </c>
       <c r="D82">
-        <v>11.95133309676724</v>
+        <v>12.29046377888723</v>
       </c>
       <c r="E82">
-        <v>11.31009627978609</v>
+        <v>12.28298600555374</v>
       </c>
       <c r="F82">
-        <v>12.11153101452506</v>
+        <v>12.29041174603514</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>11.49316909070362</v>
+        <v>12.42852196047087</v>
       </c>
       <c r="C83">
-        <v>12.28448626538247</v>
+        <v>12.10288227572914</v>
       </c>
       <c r="D83">
-        <v>12.06693724175466</v>
+        <v>12.38975244457574</v>
       </c>
       <c r="E83">
-        <v>11.42268173642644</v>
+        <v>12.4112509441888</v>
       </c>
       <c r="F83">
-        <v>12.22811380196198</v>
+        <v>12.42086327972338</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11.59936640278975</v>
+        <v>12.53641034981746</v>
       </c>
       <c r="C84">
-        <v>12.40437469178733</v>
+        <v>12.1763692415869</v>
       </c>
       <c r="D84">
-        <v>12.17707829648083</v>
+        <v>12.48501939217973</v>
       </c>
       <c r="E84">
-        <v>11.53122846925209</v>
+        <v>12.53347555642541</v>
       </c>
       <c r="F84">
-        <v>12.33922612807127</v>
+        <v>12.54499402424566</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>11.70131417346133</v>
+        <v>12.63908170620848</v>
       </c>
       <c r="C85">
-        <v>12.51729548432047</v>
+        <v>12.24687620702729</v>
       </c>
       <c r="D85">
-        <v>12.28179333799495</v>
+        <v>12.57590868622667</v>
       </c>
       <c r="E85">
-        <v>11.63567796863463</v>
+        <v>12.649221016655</v>
       </c>
       <c r="F85">
-        <v>12.44477450287331</v>
+        <v>12.66238812432976</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>11.79896137983247</v>
+        <v>12.73616398647261</v>
       </c>
       <c r="C86">
-        <v>12.62335982848199</v>
+        <v>12.31438183719384</v>
       </c>
       <c r="D86">
-        <v>12.38114462701785</v>
+        <v>12.6621404756176</v>
       </c>
       <c r="E86">
-        <v>11.7359968453327</v>
+        <v>12.75820699827675</v>
       </c>
       <c r="F86">
-        <v>12.54470894343646</v>
+        <v>12.77279384861369</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>11.89228804814757</v>
+        <v>12.82740161838375</v>
       </c>
       <c r="C87">
-        <v>12.72270804410931</v>
+        <v>12.37887488680018</v>
       </c>
       <c r="D87">
-        <v>12.47521483753012</v>
+        <v>12.74351189234302</v>
       </c>
       <c r="E87">
-        <v>11.8321731853609</v>
+        <v>12.86029113084935</v>
       </c>
       <c r="F87">
-        <v>12.63901522738854</v>
+        <v>12.87609892316618</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11.98130171112816</v>
+        <v>12.91264671077441</v>
       </c>
       <c r="C88">
-        <v>12.81550329063381</v>
+        <v>12.44035341573364</v>
       </c>
       <c r="D88">
-        <v>12.5641019184159</v>
+        <v>12.81989260539629</v>
       </c>
       <c r="E88">
-        <v>11.92421358790235</v>
+        <v>12.95544355154917</v>
       </c>
       <c r="F88">
-        <v>12.72771312020561</v>
+        <v>12.97230186197179</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>12.06603269907491</v>
+        <v>12.99184470430711</v>
       </c>
       <c r="C89">
-        <v>12.90192563146811</v>
+        <v>12.49882397055977</v>
       </c>
       <c r="D89">
-        <v>12.64791637454688</v>
+        <v>12.89121701421869</v>
       </c>
       <c r="E89">
-        <v>12.01214153334406</v>
+        <v>13.0437216387336</v>
       </c>
       <c r="F89">
-        <v>12.81085326901934</v>
+        <v>13.06148540215469</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>12.14652978742606</v>
+        <v>13.06501798597973</v>
       </c>
       <c r="C90">
-        <v>12.98216690574521</v>
+        <v>12.55430075176271</v>
       </c>
       <c r="D90">
-        <v>12.72677770390627</v>
+        <v>12.95747477871865</v>
       </c>
       <c r="E90">
-        <v>12.09599419438165</v>
+        <v>13.12524756451364</v>
       </c>
       <c r="F90">
-        <v>12.88851173558802</v>
+        <v>13.1437936282699</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>12.22285583590698</v>
+        <v>13.13224866352463</v>
       </c>
       <c r="C91">
-        <v>13.05642686781208</v>
+        <v>12.60680479197639</v>
       </c>
       <c r="D91">
-        <v>12.80081201672782</v>
+        <v>13.018701025502</v>
       </c>
       <c r="E91">
-        <v>12.17582004621518</v>
+        <v>13.20018976270393</v>
       </c>
       <c r="F91">
-        <v>12.96078533255375</v>
+        <v>13.21941343076752</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>12.29508473968879</v>
+        <v>13.19366396679873</v>
       </c>
       <c r="C92">
-        <v>13.12490962757157</v>
+        <v>12.65636316694026</v>
       </c>
       <c r="D92">
-        <v>12.87014980105505</v>
+        <v>13.07496709307349</v>
       </c>
       <c r="E92">
-        <v>12.25167707639249</v>
+        <v>13.26874812803451</v>
       </c>
       <c r="F92">
-        <v>13.02778715083893</v>
+        <v>13.28856019072635</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>12.3632987018974</v>
+        <v>13.24942344387648</v>
       </c>
       <c r="C93">
-        <v>13.18782118897767</v>
+        <v>12.70300824300295</v>
       </c>
       <c r="D93">
-        <v>12.93492412712194</v>
+        <v>13.12637230713292</v>
       </c>
       <c r="E93">
-        <v>12.32363068635819</v>
+        <v>13.33114298001025</v>
       </c>
       <c r="F93">
-        <v>13.08964324587496</v>
+        <v>13.35146720269606</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>12.42758577032736</v>
+        <v>13.29970866490667</v>
       </c>
       <c r="C94">
-        <v>13.2453675856936</v>
+        <v>12.7467769755218</v>
       </c>
       <c r="D94">
-        <v>12.99526933395171</v>
+        <v>13.17303689775926</v>
       </c>
       <c r="E94">
-        <v>12.3917520185406</v>
+        <v>13.3876066201806</v>
       </c>
       <c r="F94">
-        <v>13.14648978254819</v>
+        <v>13.40837748664523</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>12.48803818339379</v>
+        <v>13.34471528500072</v>
       </c>
       <c r="C95">
-        <v>13.29775314174359</v>
+        <v>12.78771026875917</v>
       </c>
       <c r="D95">
-        <v>13.05132004791875</v>
+        <v>13.21509611041227</v>
       </c>
       <c r="E95">
-        <v>12.45611694053867</v>
+        <v>13.43837702228828</v>
       </c>
       <c r="F95">
-        <v>13.19847032544036</v>
+        <v>13.45953796769869</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>12.54475102540479</v>
+        <v>13.3846470265358</v>
       </c>
       <c r="C96">
-        <v>13.34517915723554</v>
+        <v>12.8258523910675</v>
       </c>
       <c r="D96">
-        <v>13.10321023981939</v>
+        <v>13.25269554187113</v>
       </c>
       <c r="E96">
-        <v>12.51680484469073</v>
+        <v>13.48369340948764</v>
       </c>
       <c r="F96">
-        <v>13.24573328329901</v>
+        <v>13.50519535603342</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>12.59782099146165</v>
+        <v>13.41971102464065</v>
       </c>
       <c r="C97">
-        <v>13.38784305404533</v>
+        <v>12.86125043624383</v>
       </c>
       <c r="D97">
-        <v>13.15107239499102</v>
+        <v>13.28598731575521</v>
       </c>
       <c r="E97">
-        <v>12.57389770690807</v>
+        <v>13.52379303102578</v>
       </c>
       <c r="F97">
-        <v>13.28843039208889</v>
+        <v>13.5455931636897</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>12.64734541152886</v>
+        <v>13.45011440942084</v>
       </c>
       <c r="C98">
-        <v>13.42593782643385</v>
+        <v>12.89395383800114</v>
       </c>
       <c r="D98">
-        <v>13.19503703583405</v>
+        <v>13.31512716499792</v>
       </c>
       <c r="E98">
-        <v>12.62747931946521</v>
+        <v>13.55890886164921</v>
       </c>
       <c r="F98">
-        <v>13.32671533236351</v>
+        <v>13.58096965888395</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>12.6934215789907</v>
+        <v>13.47606193747825</v>
       </c>
       <c r="C99">
-        <v>13.45965141877143</v>
+        <v>12.92401393766688</v>
       </c>
       <c r="D99">
-        <v>13.23523241466859</v>
+        <v>13.34027206334425</v>
       </c>
       <c r="E99">
-        <v>12.67763459127804</v>
+        <v>13.58926806133873</v>
       </c>
       <c r="F99">
-        <v>13.36074231227574</v>
+        <v>13.61155646527217</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>12.73614622905592</v>
+        <v>13.49775423665791</v>
       </c>
       <c r="C100">
-        <v>13.48916634761845</v>
+        <v>12.95148359722182</v>
       </c>
       <c r="D100">
-        <v>13.27178421702861</v>
+        <v>13.36157847358602</v>
       </c>
       <c r="E100">
-        <v>12.72444898605526</v>
+        <v>13.61509095137628</v>
       </c>
       <c r="F100">
-        <v>13.3906649985432</v>
+        <v>13.63757770544439</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>12.77561513637578</v>
+        <v>13.51538661677067</v>
       </c>
       <c r="C101">
-        <v>13.51465947602265</v>
+        <v>12.97641685329501</v>
       </c>
       <c r="D101">
-        <v>13.30481528342207</v>
+        <v>13.37920105103822</v>
       </c>
       <c r="E101">
-        <v>12.7680080790295</v>
+        <v>13.63659034171057</v>
       </c>
       <c r="F101">
-        <v>13.41663567329233</v>
+        <v>13.65924943665225</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>12.81192276730479</v>
+        <v>13.52914827152926</v>
       </c>
       <c r="C102">
-        <v>13.53630174687904</v>
+        <v>12.9988686105884</v>
       </c>
       <c r="D102">
-        <v>13.33444546385354</v>
+        <v>13.39329163944699</v>
       </c>
       <c r="E102">
-        <v>12.80839718897666</v>
+        <v>13.65397114183792</v>
       </c>
       <c r="F102">
-        <v>13.438804262984</v>
+        <v>13.67677935527825</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>12.84516199547299</v>
+        <v>13.53922177074685</v>
       </c>
       <c r="C103">
-        <v>13.55425826998414</v>
+        <v>13.0188943718279</v>
       </c>
       <c r="D103">
-        <v>13.36079124685849</v>
+        <v>13.4039985506017</v>
       </c>
       <c r="E103">
-        <v>12.84570107176844</v>
+        <v>13.66743018413503</v>
       </c>
       <c r="F103">
-        <v>13.45731830640935</v>
+        <v>13.69036669752283</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>12.87542390140935</v>
+        <v>13.5457827858074</v>
       </c>
       <c r="C104">
-        <v>13.56868829332363</v>
+        <v>13.03654999967673</v>
       </c>
       <c r="D104">
-        <v>13.38396604630698</v>
+        <v>13.41146604915014</v>
       </c>
       <c r="E104">
-        <v>12.88000362110051</v>
+        <v>13.67715619310883</v>
       </c>
       <c r="F104">
-        <v>13.47232234406523</v>
+        <v>13.70020226660426</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>12.90279765647865</v>
+        <v>13.54899997328736</v>
       </c>
       <c r="C105">
-        <v>13.57974520649804</v>
+        <v>13.05189150692025</v>
       </c>
       <c r="D105">
-        <v>13.40408008591553</v>
+        <v>13.41583400865381</v>
       </c>
       <c r="E105">
-        <v>12.91138765162681</v>
+        <v>13.6833298298331</v>
       </c>
       <c r="F105">
-        <v>13.48395742875333</v>
+        <v>13.70646854370915</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.92737043852211</v>
+        <v>13.54903495566409</v>
       </c>
       <c r="C106">
-        <v>13.587576612396</v>
+        <v>13.06497487267741</v>
       </c>
       <c r="D106">
-        <v>13.42124036953463</v>
+        <v>13.41723768988182</v>
       </c>
       <c r="E106">
-        <v>12.93993477442547</v>
+        <v>13.68612383780398</v>
       </c>
       <c r="F106">
-        <v>13.492360848343</v>
+        <v>13.70933985528226</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>12.94922736453361</v>
+        <v>13.54604239938599</v>
       </c>
       <c r="C107">
-        <v>13.59232439336125</v>
+        <v>13.07585588248583</v>
       </c>
       <c r="D107">
-        <v>13.43555062291841</v>
+        <v>13.41580761000973</v>
       </c>
       <c r="E107">
-        <v>12.96572514468597</v>
+        <v>13.68570325252651</v>
       </c>
       <c r="F107">
-        <v>13.49766602435139</v>
+        <v>13.70898262459881</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12.96845144449988</v>
+        <v>13.54017014913175</v>
       </c>
       <c r="C108">
-        <v>13.59412481633237</v>
+        <v>13.08458998953973</v>
       </c>
       <c r="D108">
-        <v>13.4471113280174</v>
+        <v>13.4116694947462</v>
       </c>
       <c r="E108">
-        <v>12.98883752204179</v>
+        <v>13.68222563387874</v>
       </c>
       <c r="F108">
-        <v>13.50000239806198</v>
+        <v>13.70555563246345</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>12.98512355750236</v>
+        <v>13.53155940547985</v>
       </c>
       <c r="C109">
-        <v>13.59310872105137</v>
+        <v>13.09123219442338</v>
       </c>
       <c r="D109">
-        <v>13.45601978127769</v>
+        <v>13.40494428634943</v>
       </c>
       <c r="E109">
-        <v>13.00934910447821</v>
+        <v>13.67584128393985</v>
       </c>
       <c r="F109">
-        <v>13.49949532981179</v>
+        <v>13.69921027447401</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.99932244789819</v>
+        <v>13.52034492134248</v>
       </c>
       <c r="C110">
-        <v>13.58940165178823</v>
+        <v>13.09583694131903</v>
       </c>
       <c r="D110">
-        <v>13.46237018745213</v>
+        <v>13.39574817609969</v>
       </c>
       <c r="E110">
-        <v>13.02733545634651</v>
+        <v>13.6666935239985</v>
       </c>
       <c r="F110">
-        <v>13.49626606207618</v>
+        <v>13.69009083422387</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>13.0111247381515</v>
+        <v>13.50665521851618</v>
       </c>
       <c r="C111">
-        <v>13.58312402119508</v>
+        <v>13.0984580326307</v>
       </c>
       <c r="D111">
-        <v>13.4662537077576</v>
+        <v>13.38419268809801</v>
       </c>
       <c r="E111">
-        <v>13.04287048518243</v>
+        <v>13.65491896420945</v>
       </c>
       <c r="F111">
-        <v>13.49043164788025</v>
+        <v>13.67833478212803</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>13.02060494418666</v>
+        <v>13.49061282903061</v>
       </c>
       <c r="C112">
-        <v>13.57439126588838</v>
+        <v>13.09914854829517</v>
       </c>
       <c r="D112">
-        <v>13.46775850199067</v>
+        <v>13.37038478549056</v>
       </c>
       <c r="E112">
-        <v>13.05602639208328</v>
+        <v>13.64064777669716</v>
       </c>
       <c r="F112">
-        <v>13.48210503705878</v>
+        <v>13.66407305958368</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>13.02783549704091</v>
+        <v>13.47233453198268</v>
       </c>
       <c r="C113">
-        <v>13.56331398910613</v>
+        <v>13.09796078533253</v>
       </c>
       <c r="D113">
-        <v>13.4669698151362</v>
+        <v>13.35442700071194</v>
       </c>
       <c r="E113">
-        <v>13.06687364418967</v>
+        <v>13.62400396402292</v>
       </c>
       <c r="F113">
-        <v>13.47139496351422</v>
+        <v>13.64743036102557</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>13.03288677905101</v>
+        <v>13.45193158441702</v>
       </c>
       <c r="C114">
-        <v>13.54999815076807</v>
+        <v>13.09494618653741</v>
       </c>
       <c r="D114">
-        <v>13.46397004092059</v>
+        <v>13.3364175547033</v>
       </c>
       <c r="E114">
-        <v>13.07548098091202</v>
+        <v>13.60510562635522</v>
       </c>
       <c r="F114">
-        <v>13.4584062447583</v>
+        <v>13.62852540708572</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>13.03582715799428</v>
+        <v>13.42950994760031</v>
       </c>
       <c r="C115">
-        <v>13.53454522331679</v>
+        <v>13.09015532066951</v>
       </c>
       <c r="D115">
-        <v>13.45883879067581</v>
+        <v>13.31645048027573</v>
       </c>
       <c r="E115">
-        <v>13.08191542479213</v>
+        <v>13.58406521843699</v>
       </c>
       <c r="F115">
-        <v>13.44323975388104</v>
+        <v>13.60747121787602</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>13.03672302537524</v>
+        <v>13.40517052764669</v>
       </c>
       <c r="C116">
-        <v>13.51705236194962</v>
+        <v>13.08363784495644</v>
       </c>
       <c r="D116">
-        <v>13.45165299466455</v>
+        <v>13.29461578151366</v>
       </c>
       <c r="E116">
-        <v>13.08624227252789</v>
+        <v>13.56098980235467</v>
       </c>
       <c r="F116">
-        <v>13.42599245842689</v>
+        <v>13.58437537145176</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>13.03563883700209</v>
+        <v>13.37900939755346</v>
       </c>
       <c r="C117">
-        <v>13.49761256894834</v>
+        <v>13.07544246336407</v>
       </c>
       <c r="D117">
-        <v>13.44248694263056</v>
+        <v>13.27099957329989</v>
       </c>
       <c r="E117">
-        <v>13.08852512051638</v>
+        <v>13.53598129048855</v>
       </c>
       <c r="F117">
-        <v>13.40675752065919</v>
+        <v>13.55934024226658</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>13.03263715595567</v>
+        <v>13.35111801622403</v>
       </c>
       <c r="C118">
-        <v>13.47631485029084</v>
+        <v>13.06561692023489</v>
       </c>
       <c r="D118">
-        <v>13.43141241245059</v>
+        <v>13.24568422782365</v>
       </c>
       <c r="E118">
-        <v>13.08882587980628</v>
+        <v>13.50913669487383</v>
       </c>
       <c r="F118">
-        <v>13.3856244223187</v>
+        <v>13.53246327012971</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>13.02777869711594</v>
+        <v>13.3215834367902</v>
       </c>
       <c r="C119">
-        <v>13.45324437209086</v>
+        <v>13.05420796329735</v>
       </c>
       <c r="D119">
-        <v>13.41849870005867</v>
+        <v>13.21874851810122</v>
       </c>
       <c r="E119">
-        <v>13.08720478876443</v>
+        <v>13.48054834553064</v>
       </c>
       <c r="F119">
-        <v>13.36267900396513</v>
+        <v>13.50383717406659</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>13.02112237244487</v>
+        <v>13.29048851530279</v>
       </c>
       <c r="C120">
-        <v>13.4284826119337</v>
+        <v>13.04126134163605</v>
       </c>
       <c r="D120">
-        <v>13.40381273870718</v>
+        <v>13.19026775968687</v>
       </c>
       <c r="E120">
-        <v>13.08372043791131</v>
+        <v>13.4503041175638</v>
       </c>
       <c r="F120">
-        <v>13.33800352439331</v>
+        <v>13.47355017443099</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>13.01272533648015</v>
+        <v>13.25791209389799</v>
       </c>
       <c r="C121">
-        <v>13.4021075082453</v>
+        <v>13.02682179600432</v>
       </c>
       <c r="D121">
-        <v>13.38741913889983</v>
+        <v>13.16031394891881</v>
       </c>
       <c r="E121">
-        <v>13.07842980864416</v>
+        <v>13.41848762047285</v>
       </c>
       <c r="F121">
-        <v>13.31167699145237</v>
+        <v>13.44168622173941</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>13.00264303181061</v>
+        <v>13.22392922448431</v>
       </c>
       <c r="C122">
-        <v>13.37419360287917</v>
+        <v>13.0109330599654</v>
       </c>
       <c r="D122">
-        <v>13.36938028357529</v>
+        <v>13.12895590090445</v>
       </c>
       <c r="E122">
-        <v>13.07138829646084</v>
+        <v>13.38517841708583</v>
       </c>
       <c r="F122">
-        <v>13.28377512093111</v>
+        <v>13.40832517684848</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12.99092923446905</v>
+        <v>13.188611295537</v>
       </c>
       <c r="C123">
-        <v>13.34481218086056</v>
+        <v>12.99363785373039</v>
       </c>
       <c r="D123">
-        <v>13.34975637995754</v>
+        <v>13.0962593759063</v>
       </c>
       <c r="E123">
-        <v>13.06264974258923</v>
+        <v>13.35045221572711</v>
       </c>
       <c r="F123">
-        <v>13.25437051872712</v>
+        <v>13.37354302124958</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.9776360971963</v>
+        <v>13.15202626933399</v>
       </c>
       <c r="C124">
-        <v>13.31403140049955</v>
+        <v>12.97497788934274</v>
       </c>
       <c r="D124">
-        <v>13.32860554275236</v>
+        <v>13.06228721679606</v>
       </c>
       <c r="E124">
-        <v>13.05226647120391</v>
+        <v>13.31438104644773</v>
       </c>
       <c r="F124">
-        <v>13.22353269171465</v>
+        <v>13.33741204848592</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.9628141960729</v>
+        <v>13.11423878088894</v>
       </c>
       <c r="C125">
-        <v>13.28191644351845</v>
+        <v>12.95499387690623</v>
       </c>
       <c r="D125">
-        <v>13.30598385809139</v>
+        <v>13.02709947605328</v>
       </c>
       <c r="E125">
-        <v>13.04028931848721</v>
+        <v>13.2770334390756</v>
       </c>
       <c r="F125">
-        <v>13.19132819946674</v>
+        <v>13.30000102915947</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.94651257473183</v>
+        <v>13.07531033825596</v>
       </c>
       <c r="C126">
-        <v>13.24852960318456</v>
+        <v>12.93372552959361</v>
       </c>
       <c r="D126">
-        <v>13.28194545705339</v>
+        <v>12.99075351553197</v>
       </c>
       <c r="E126">
-        <v>13.02676766675017</v>
+        <v>13.23847459715076</v>
       </c>
       <c r="F126">
-        <v>13.15782075253191</v>
+        <v>13.26137538289084</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>12.92877878720062</v>
+        <v>13.03529946121237</v>
       </c>
       <c r="C127">
-        <v>13.21393047013903</v>
+        <v>12.91121157138725</v>
       </c>
       <c r="D127">
-        <v>13.2565425656816</v>
+        <v>12.95330415547024</v>
       </c>
       <c r="E127">
-        <v>13.01174947857121</v>
+        <v>13.1987665527154</v>
       </c>
       <c r="F127">
-        <v>13.12307133909516</v>
+        <v>13.22159735153172</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12.90965894059658</v>
+        <v>12.99426181973276</v>
       </c>
       <c r="C128">
-        <v>13.17817596185694</v>
+        <v>12.88748975120659</v>
       </c>
       <c r="D128">
-        <v>13.22982559111531</v>
+        <v>12.91480374451812</v>
       </c>
       <c r="E128">
-        <v>12.99528133118982</v>
+        <v>13.15796831792914</v>
       </c>
       <c r="F128">
-        <v>13.08713832226952</v>
+        <v>13.18072613939462</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>12.88919773516779</v>
+        <v>12.95225037242617</v>
       </c>
       <c r="C129">
-        <v>13.14132053411661</v>
+        <v>12.86259685312102</v>
       </c>
       <c r="D129">
-        <v>13.20184316777211</v>
+        <v>12.87530230131473</v>
       </c>
       <c r="E129">
-        <v>12.97740845031563</v>
+        <v>13.11613603279058</v>
       </c>
       <c r="F129">
-        <v>13.05007754553997</v>
+        <v>13.13881806341752</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>12.86743850857209</v>
+        <v>12.90931549879671</v>
       </c>
       <c r="C130">
-        <v>13.10341618271405</v>
+        <v>12.83656870820602</v>
       </c>
       <c r="D130">
-        <v>13.17264223435942</v>
+        <v>12.83484759069892</v>
       </c>
       <c r="E130">
-        <v>12.95817474567578</v>
+        <v>13.07332310835587</v>
       </c>
       <c r="F130">
-        <v>13.01194243481929</v>
+        <v>13.09592670193585</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>12.8444232685695</v>
+        <v>12.86550513073517</v>
       </c>
       <c r="C131">
-        <v>13.06451264524208</v>
+        <v>12.80944021222992</v>
       </c>
       <c r="D131">
-        <v>13.14226806060279</v>
+        <v>12.79348523973435</v>
       </c>
       <c r="E131">
-        <v>12.9376228445786</v>
+        <v>13.02958034930081</v>
       </c>
       <c r="F131">
-        <v>12.97278407557084</v>
+        <v>13.05210301751432</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>12.82019273949886</v>
+        <v>12.82086486798065</v>
       </c>
       <c r="C132">
-        <v>13.0246574137162</v>
+        <v>12.78124533914934</v>
       </c>
       <c r="D132">
-        <v>13.1107643421655</v>
+        <v>12.75125883388496</v>
       </c>
       <c r="E132">
-        <v>12.91579412523845</v>
+        <v>12.98495608425978</v>
       </c>
       <c r="F132">
-        <v>12.93265132466565</v>
+        <v>13.00739548434688</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>12.79478639653779</v>
+        <v>12.77543808932764</v>
       </c>
       <c r="C133">
-        <v>12.98389590418493</v>
+        <v>12.75201715633757</v>
       </c>
       <c r="D133">
-        <v>13.07817322528621</v>
+        <v>12.70820998786685</v>
       </c>
       <c r="E133">
-        <v>12.89272875156841</v>
+        <v>12.93949629083613</v>
       </c>
       <c r="F133">
-        <v>12.89159088763524</v>
+        <v>12.96185021745504</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12.7682425028886</v>
+        <v>12.72926606065715</v>
       </c>
       <c r="C134">
-        <v>12.94227149191148</v>
+        <v>12.72178784293942</v>
       </c>
       <c r="D134">
-        <v>13.04453538291689</v>
+        <v>12.66437846212249</v>
       </c>
       <c r="E134">
-        <v>12.86846570423189</v>
+        <v>12.89324469979068</v>
       </c>
       <c r="F134">
-        <v>12.84964740497472</v>
+        <v>12.91551107919617</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>12.74059814850357</v>
+        <v>12.68238803298144</v>
       </c>
       <c r="C135">
-        <v>12.89982564673574</v>
+        <v>12.69058870751765</v>
       </c>
       <c r="D135">
-        <v>13.00989004264977</v>
+        <v>12.61980221398234</v>
       </c>
       <c r="E135">
-        <v>12.84304281007845</v>
+        <v>12.84624289640926</v>
       </c>
       <c r="F135">
-        <v>12.80686356984913</v>
+        <v>12.86841978900022</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>12.71188928030016</v>
+        <v>12.63484134459959</v>
       </c>
       <c r="C136">
-        <v>12.85659797323456</v>
+        <v>12.6584502002992</v>
       </c>
       <c r="D136">
-        <v>12.97427505997941</v>
+        <v>12.57451750316471</v>
       </c>
       <c r="E136">
-        <v>12.81649678428045</v>
+        <v>12.79853047151802</v>
       </c>
       <c r="F136">
-        <v>12.76328012581188</v>
+        <v>12.8206160343967</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12.68215074231274</v>
+        <v>12.58666151535352</v>
       </c>
       <c r="C137">
-        <v>12.81262633574608</v>
+        <v>12.62540193683733</v>
       </c>
       <c r="D137">
-        <v>12.93772694313987</v>
+        <v>12.52855895235307</v>
       </c>
       <c r="E137">
-        <v>12.78886324599878</v>
+        <v>12.75014502984355</v>
       </c>
       <c r="F137">
-        <v>12.71893608726885</v>
+        <v>12.77213756440312</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>12.6514163033754</v>
+        <v>12.53788233325142</v>
       </c>
       <c r="C138">
-        <v>12.76794689086316</v>
+        <v>12.59147270713015</v>
       </c>
       <c r="D138">
-        <v>12.90028092030822</v>
+        <v>12.48195962240826</v>
       </c>
       <c r="E138">
-        <v>12.76017676948834</v>
+        <v>12.7011224337342</v>
       </c>
       <c r="F138">
-        <v>12.67386870970745</v>
+        <v>12.7230202825094</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>12.61971869299402</v>
+        <v>12.48853593765939</v>
       </c>
       <c r="C139">
-        <v>12.72259420431491</v>
+        <v>12.55669050386288</v>
       </c>
       <c r="D139">
-        <v>12.86197096670637</v>
+        <v>12.43475109407829</v>
       </c>
       <c r="E139">
-        <v>12.73047088705538</v>
+        <v>12.6514966959353</v>
       </c>
       <c r="F139">
-        <v>12.62811353287533</v>
+        <v>12.67329834250414</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12.58708963235351</v>
+        <v>12.43865290021799</v>
       </c>
       <c r="C140">
-        <v>12.67660128111962</v>
+        <v>12.52108253696161</v>
       </c>
       <c r="D140">
-        <v>12.82282986310914</v>
+        <v>12.38696351338957</v>
       </c>
       <c r="E140">
-        <v>12.69977814677138</v>
+        <v>12.60130025443141</v>
       </c>
       <c r="F140">
-        <v>12.58170463217715</v>
+        <v>12.62300422678411</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.55355986235134</v>
+        <v>12.38826230112406</v>
       </c>
       <c r="C141">
-        <v>12.62999967022399</v>
+        <v>12.48467524691494</v>
       </c>
       <c r="D141">
-        <v>12.78288922668252</v>
+        <v>12.3386256789109</v>
       </c>
       <c r="E141">
-        <v>12.66813011891662</v>
+        <v>12.55056391602404</v>
       </c>
       <c r="F141">
-        <v>12.53467442263006</v>
+        <v>12.57216881873032</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>12.51915917800458</v>
+        <v>12.33739180161168</v>
       </c>
       <c r="C142">
-        <v>12.58281949797693</v>
+        <v>12.44749433151577</v>
       </c>
       <c r="D142">
-        <v>12.74217955979159</v>
+        <v>12.28976508126172</v>
       </c>
       <c r="E142">
-        <v>12.63555743280203</v>
+        <v>12.4993169852247</v>
       </c>
       <c r="F142">
-        <v>12.48705395722413</v>
+        <v>12.52082152467613</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.48391645196948</v>
+        <v>12.28606771304743</v>
       </c>
       <c r="C143">
-        <v>12.53508955720789</v>
+        <v>12.40956475610001</v>
       </c>
       <c r="D143">
-        <v>12.70073028393276</v>
+        <v>12.24040797636151</v>
       </c>
       <c r="E143">
-        <v>12.60208980639929</v>
+        <v>12.44758735322174</v>
       </c>
       <c r="F143">
-        <v>12.43887289173931</v>
+        <v>12.46899026219362</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.44785966666695</v>
+        <v>12.23431506252755</v>
       </c>
       <c r="C144">
-        <v>12.48683734487131</v>
+        <v>12.37091077488649</v>
       </c>
       <c r="D144">
-        <v>12.65856977988082</v>
+        <v>12.19057943489426</v>
       </c>
       <c r="E144">
-        <v>12.5677560598638</v>
+        <v>12.39540151559485</v>
       </c>
       <c r="F144">
-        <v>12.39015946789493</v>
+        <v>12.41670166576296</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>12.41101593980949</v>
+        <v>12.18215765538182</v>
       </c>
       <c r="C145">
-        <v>12.43808913729662</v>
+        <v>12.33155594897646</v>
       </c>
       <c r="D145">
-        <v>12.61572542441344</v>
+        <v>12.14030339111928</v>
       </c>
       <c r="E145">
-        <v>12.53258416160964</v>
+        <v>12.34278470621152</v>
       </c>
       <c r="F145">
-        <v>12.34094075089115</v>
+        <v>12.36398099752361</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>12.37341154938013</v>
+        <v>12.12961813462459</v>
       </c>
       <c r="C146">
-        <v>12.38887002973314</v>
+        <v>12.29152315472203</v>
       </c>
       <c r="D146">
-        <v>12.57222362221149</v>
+        <v>12.08960270799219</v>
       </c>
       <c r="E146">
-        <v>12.49660123290761</v>
+        <v>12.28976088954689</v>
       </c>
       <c r="F146">
-        <v>12.29124251618108</v>
+        <v>12.3108523239212</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12.33507196334367</v>
+        <v>12.0767180376086</v>
       </c>
       <c r="C147">
-        <v>12.33920400050483</v>
+        <v>12.25083461234851</v>
       </c>
       <c r="D147">
-        <v>12.52808984611515</v>
+        <v>12.03849920682641</v>
       </c>
       <c r="E147">
-        <v>12.45983359309682</v>
+        <v>12.23635289846243</v>
       </c>
       <c r="F147">
-        <v>12.24108939914809</v>
+        <v>12.25733853861075</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.2960218595398</v>
+        <v>12.02347784970087</v>
       </c>
       <c r="C148">
-        <v>12.28911395132717</v>
+        <v>12.20951189784006</v>
       </c>
       <c r="D148">
-        <v>12.48334866076692</v>
+        <v>11.98701373137736</v>
       </c>
       <c r="E148">
-        <v>12.42230676051711</v>
+        <v>12.18258241521842</v>
       </c>
       <c r="F148">
-        <v>12.1905049417005</v>
+        <v>12.20346137307882</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12.25628515405269</v>
+        <v>11.96991705562594</v>
       </c>
       <c r="C149">
-        <v>12.23862176177773</v>
+        <v>12.16757596056244</v>
       </c>
       <c r="D149">
-        <v>12.43802376662465</v>
+        <v>11.93516617872885</v>
       </c>
       <c r="E149">
-        <v>12.38404549740149</v>
+        <v>12.12847010934736</v>
       </c>
       <c r="F149">
-        <v>12.13951156465327</v>
+        <v>12.1492415497072</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>12.2158850223279</v>
+        <v>11.91605418814393</v>
       </c>
       <c r="C150">
-        <v>12.18774833068156</v>
+        <v>12.12504713834557</v>
       </c>
       <c r="D150">
-        <v>12.3921380160556</v>
+        <v>11.88297554877395</v>
       </c>
       <c r="E150">
-        <v>12.34507381802808</v>
+        <v>12.07403558746014</v>
       </c>
       <c r="F150">
-        <v>12.0881307419341</v>
+        <v>12.09469871992153</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12.17484392290313</v>
+        <v>11.86190687441795</v>
       </c>
       <c r="C151">
-        <v>12.13651362122225</v>
+        <v>12.08194517484861</v>
       </c>
       <c r="D151">
-        <v>12.34571345945611</v>
+        <v>11.83045998479812</v>
       </c>
       <c r="E151">
-        <v>12.305415013361</v>
+        <v>12.01929755253217</v>
       </c>
       <c r="F151">
-        <v>12.03638292900168</v>
+        <v>12.03985162341216</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12.1331836183238</v>
+        <v>11.8074918801006</v>
       </c>
       <c r="C152">
-        <v>12.08493670387285</v>
+        <v>12.03828923634523</v>
       </c>
       <c r="D152">
-        <v>12.29877135655501</v>
+        <v>11.77763680490878</v>
       </c>
       <c r="E152">
-        <v>12.26509168021131</v>
+        <v>11.96427374282928</v>
       </c>
       <c r="F152">
-        <v>11.98428765934454</v>
+        <v>11.98471803520693</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12.09092519674935</v>
+        <v>11.75282515128489</v>
       </c>
       <c r="C153">
-        <v>12.03303579244596</v>
+        <v>11.99409792327477</v>
       </c>
       <c r="D153">
-        <v>12.25133222124275</v>
+        <v>11.72452255117613</v>
       </c>
       <c r="E153">
-        <v>12.22412572668344</v>
+        <v>11.90898105596953</v>
       </c>
       <c r="F153">
-        <v>11.93186361816259</v>
+        <v>11.92931490194835</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12.04808909367536</v>
+        <v>11.6979218544093</v>
       </c>
       <c r="C154">
-        <v>11.98082828861634</v>
+        <v>11.94938929210343</v>
       </c>
       <c r="D154">
-        <v>12.20341583128332</v>
+        <v>11.67113301118143</v>
       </c>
       <c r="E154">
-        <v>12.18253841231674</v>
+        <v>11.85343554947175</v>
       </c>
       <c r="F154">
-        <v>11.8791285686975</v>
+        <v>11.87365831607664</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>12.00469511179738</v>
+        <v>11.64279641422086</v>
       </c>
       <c r="C155">
-        <v>11.92833080952703</v>
+        <v>11.90418086126252</v>
       </c>
       <c r="D155">
-        <v>12.15504127021412</v>
+        <v>11.61748325767315</v>
       </c>
       <c r="E155">
-        <v>12.14035034516228</v>
+        <v>11.79765249304797</v>
       </c>
       <c r="F155">
-        <v>11.8260995401719</v>
+        <v>11.81776359998538</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11.96076244034058</v>
+        <v>11.58746254989328</v>
       </c>
       <c r="C156">
-        <v>11.87555923370603</v>
+        <v>11.85848963609906</v>
       </c>
       <c r="D156">
-        <v>12.1062269366729</v>
+        <v>11.56358767894323</v>
       </c>
       <c r="E156">
-        <v>12.09758152390323</v>
+        <v>11.74164641781429</v>
       </c>
       <c r="F156">
-        <v>11.77279275035399</v>
+        <v>11.76164532679552</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11.91630967382489</v>
+        <v>11.53193330939087</v>
       </c>
       <c r="C157">
-        <v>11.82252872106333</v>
+        <v>11.81233211217979</v>
       </c>
       <c r="D157">
-        <v>12.05699058266976</v>
+        <v>11.50946003311636</v>
       </c>
       <c r="E157">
-        <v>12.05425133580795</v>
+        <v>11.68543113763534</v>
       </c>
       <c r="F157">
-        <v>11.7192236656103</v>
+        <v>11.7053173400698</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.87135483042698</v>
+        <v>11.47622110216206</v>
       </c>
       <c r="C158">
-        <v>11.76925375992757</v>
+        <v>11.76572430002154</v>
       </c>
       <c r="D158">
-        <v>12.00734932351604</v>
+        <v>11.45511340988244</v>
       </c>
       <c r="E158">
-        <v>12.01037858927983</v>
+        <v>11.62901980375926</v>
       </c>
       <c r="F158">
-        <v>11.66540709080169</v>
+        <v>11.64879283479203</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.82591536974694</v>
+        <v>11.42033773024111</v>
       </c>
       <c r="C159">
-        <v>11.71574818032609</v>
+        <v>11.71868172953665</v>
       </c>
       <c r="D159">
-        <v>11.95731966936257</v>
+        <v>11.4005603666884</v>
       </c>
       <c r="E159">
-        <v>11.96598152468388</v>
+        <v>11.57242489976758</v>
       </c>
       <c r="F159">
-        <v>11.61135709524671</v>
+        <v>11.59208431617483</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.78000821022236</v>
+        <v>11.36429441785563</v>
       </c>
       <c r="C160">
-        <v>11.66202520184454</v>
+        <v>11.67121946963345</v>
       </c>
       <c r="D160">
-        <v>11.90691753531376</v>
+        <v>11.3458128747661</v>
       </c>
       <c r="E160">
-        <v>11.92107782916385</v>
+        <v>11.51565832743151</v>
       </c>
       <c r="F160">
-        <v>11.55708715933481</v>
+        <v>11.53520371559031</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.73364974581096</v>
+        <v>11.30810183955857</v>
       </c>
       <c r="C161">
-        <v>11.60809744097243</v>
+        <v>11.62335213843021</v>
       </c>
       <c r="D161">
-        <v>11.85615828740709</v>
+        <v>11.29088231754664</v>
       </c>
       <c r="E161">
-        <v>11.87568466254122</v>
+        <v>11.45873137577154</v>
       </c>
       <c r="F161">
-        <v>11.50261012772554</v>
+        <v>11.47816234458106</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.68685586216103</v>
+        <v>11.25177014701515</v>
       </c>
       <c r="C162">
-        <v>11.55397695943062</v>
+        <v>11.57509391537143</v>
       </c>
       <c r="D162">
-        <v>11.80505673293729</v>
+        <v>11.23577964023009</v>
       </c>
       <c r="E162">
-        <v>11.82981865857536</v>
+        <v>11.40165480902023</v>
       </c>
       <c r="F162">
-        <v>11.44793824070713</v>
+        <v>11.42097098509709</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.63964195227819</v>
+        <v>11.19530899448232</v>
       </c>
       <c r="C163">
-        <v>11.49967526684472</v>
+        <v>11.52645855726503</v>
       </c>
       <c r="D163">
-        <v>11.75362714674464</v>
+        <v>11.18051522928161</v>
       </c>
       <c r="E163">
-        <v>11.78349595845993</v>
+        <v>11.34443883517159</v>
       </c>
       <c r="F163">
-        <v>11.39308321839221</v>
+        <v>11.36363987727878</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.59202293180134</v>
+        <v>11.13872756304028</v>
       </c>
       <c r="C164">
-        <v>11.4452033679343</v>
+        <v>11.47745940433361</v>
       </c>
       <c r="D164">
-        <v>11.70188333278205</v>
+        <v>11.12509901952118</v>
       </c>
       <c r="E164">
-        <v>11.73673220614928</v>
+        <v>11.28709318504946</v>
       </c>
       <c r="F164">
-        <v>11.33805619857383</v>
+        <v>11.30617876882675</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.54401325371817</v>
+        <v>11.08203458364898</v>
       </c>
       <c r="C165">
-        <v>11.39057176303857</v>
+        <v>11.42810939997018</v>
       </c>
       <c r="D165">
-        <v>11.64983856563902</v>
+        <v>11.06954051528456</v>
       </c>
       <c r="E165">
-        <v>11.68954258240662</v>
+        <v>11.22962709434883</v>
       </c>
       <c r="F165">
-        <v>11.28286784623331</v>
+        <v>11.24859692831663</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.49562692267468</v>
+        <v>11.02523835907944</v>
       </c>
       <c r="C166">
-        <v>11.33579049204437</v>
+        <v>11.37842109296811</v>
       </c>
       <c r="D166">
-        <v>11.5975056504161</v>
+        <v>11.0138487441879</v>
       </c>
       <c r="E166">
-        <v>11.64194180330693</v>
+        <v>11.17204935618337</v>
       </c>
       <c r="F166">
-        <v>11.22752833104883</v>
+        <v>11.19090315885772</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.44687750888017</v>
+        <v>10.96834678477657</v>
       </c>
       <c r="C167">
-        <v>11.28086913465943</v>
+        <v>11.32840665895932</v>
       </c>
       <c r="D167">
-        <v>11.54489697616292</v>
+        <v>10.95803236530042</v>
       </c>
       <c r="E167">
-        <v>11.59394414292911</v>
+        <v>11.11436832687175</v>
       </c>
       <c r="F167">
-        <v>11.17204733277905</v>
+        <v>11.133105851186</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.39777816150504</v>
+        <v>10.91136736870591</v>
       </c>
       <c r="C168">
-        <v>11.22581685049732</v>
+        <v>11.27807790054793</v>
       </c>
       <c r="D168">
-        <v>11.49202444221022</v>
+        <v>10.90209962671927</v>
       </c>
       <c r="E168">
-        <v>11.54556344502607</v>
+        <v>11.05659195243388</v>
       </c>
       <c r="F168">
-        <v>11.11643412522421</v>
+        <v>11.07521296113211</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.34834162148614</v>
+        <v>10.85430725023423</v>
       </c>
       <c r="C169">
-        <v>11.170642379424</v>
+        <v>11.22744626852877</v>
       </c>
       <c r="D169">
-        <v>11.43889954200059</v>
+        <v>10.84605839312147</v>
       </c>
       <c r="E169">
-        <v>11.49681313130221</v>
+        <v>10.99872779306546</v>
       </c>
       <c r="F169">
-        <v>11.0606975217351</v>
+        <v>11.01723207755042</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>11.29858023435514</v>
+        <v>10.797173218089</v>
       </c>
       <c r="C170">
-        <v>11.11535407798436</v>
+        <v>11.17652285972669</v>
       </c>
       <c r="D170">
-        <v>11.38553337912151</v>
+        <v>10.78991619669554</v>
       </c>
       <c r="E170">
-        <v>11.44770622360786</v>
+        <v>10.94078302971207</v>
       </c>
       <c r="F170">
-        <v>11.00484594892065</v>
+        <v>10.95917039148775</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>11.24850596245434</v>
+        <v>10.739971727444</v>
       </c>
       <c r="C171">
-        <v>11.05995991994789</v>
+        <v>11.12531843883557</v>
       </c>
       <c r="D171">
-        <v>11.33193662454613</v>
+        <v>10.73368020205178</v>
       </c>
       <c r="E171">
-        <v>11.398255343062</v>
+        <v>10.8827645011136</v>
       </c>
       <c r="F171">
-        <v>10.94888745264436</v>
+        <v>10.90103476063523</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11.19813039667872</v>
+        <v>10.68270891617208</v>
       </c>
       <c r="C172">
-        <v>11.00446752929777</v>
+        <v>11.0738434499507</v>
       </c>
       <c r="D172">
-        <v>11.27811959267451</v>
+        <v>10.67735727059357</v>
       </c>
       <c r="E172">
-        <v>11.34847273706337</v>
+        <v>10.82467869684566</v>
       </c>
       <c r="F172">
-        <v>10.89282969030897</v>
+        <v>10.84283169212141</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11.14746476791149</v>
+        <v>10.62539062030642</v>
       </c>
       <c r="C173">
-        <v>10.94888418101547</v>
+        <v>11.02210801252559</v>
       </c>
       <c r="D173">
-        <v>11.224092235165</v>
+        <v>10.62095395273117</v>
       </c>
       <c r="E173">
-        <v>11.29837027459676</v>
+        <v>10.76653180111693</v>
       </c>
       <c r="F173">
-        <v>10.83667999486106</v>
+        <v>10.78456737788095</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11.09651995814823</v>
+        <v>10.5680223887484</v>
       </c>
       <c r="C174">
-        <v>10.89321682953212</v>
+        <v>10.9701219290415</v>
       </c>
       <c r="D174">
-        <v>11.16986411972198</v>
+        <v>10.56447647511673</v>
       </c>
       <c r="E174">
-        <v>11.24795947283124</v>
+        <v>10.7083296792786</v>
       </c>
       <c r="F174">
-        <v>10.78044533991222</v>
+        <v>10.72624770589441</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>11.04530651126637</v>
+        <v>10.51060949725886</v>
       </c>
       <c r="C175">
-        <v>10.83747210513464</v>
+        <v>10.91789473020658</v>
       </c>
       <c r="D175">
-        <v>11.11544450200878</v>
+        <v>10.50793081647669</v>
       </c>
       <c r="E175">
-        <v>11.19725149644284</v>
+        <v>10.65007792181344</v>
       </c>
       <c r="F175">
-        <v>10.72413238444723</v>
+        <v>10.66787826827381</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.9938346434271</v>
+        <v>10.45315696176836</v>
       </c>
       <c r="C176">
-        <v>10.78165635763643</v>
+        <v>10.8654356525302</v>
       </c>
       <c r="D176">
-        <v>11.06084230437881</v>
+        <v>10.45132265979086</v>
       </c>
       <c r="E176">
-        <v>11.14625717311266</v>
+        <v>10.59178183007506</v>
       </c>
       <c r="F176">
-        <v>10.66774749430341</v>
+        <v>10.6094643913983</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.94211425315783</v>
+        <v>10.39566955103833</v>
       </c>
       <c r="C177">
-        <v>10.7257756502179</v>
+        <v>10.81275360733689</v>
       </c>
       <c r="D177">
-        <v>11.00606611027649</v>
+        <v>10.39465742653748</v>
       </c>
       <c r="E177">
-        <v>11.09498700485744</v>
+        <v>10.53344645602409</v>
       </c>
       <c r="F177">
-        <v>10.61129671821817</v>
+        <v>10.5510111267569</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.89015493115856</v>
+        <v>10.33815179870565</v>
       </c>
       <c r="C178">
-        <v>10.66983575046046</v>
+        <v>10.75985728821425</v>
       </c>
       <c r="D178">
-        <v>10.95112422459885</v>
+        <v>10.33794030883494</v>
       </c>
       <c r="E178">
-        <v>11.04345117222706</v>
+        <v>10.4750765933351</v>
       </c>
       <c r="F178">
-        <v>10.5547858520426</v>
+        <v>10.49252329093554</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.83796596978024</v>
+        <v>10.2806080147406</v>
       </c>
       <c r="C179">
-        <v>10.61384221165063</v>
+        <v>10.70675511310632</v>
       </c>
       <c r="D179">
-        <v>10.89602465138941</v>
+        <v>10.28117623764374</v>
       </c>
       <c r="E179">
-        <v>10.99165955190613</v>
+        <v>10.41667680448286</v>
       </c>
       <c r="F179">
-        <v>10.49822041092913</v>
+        <v>10.4340054477625</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.78555637221593</v>
+        <v>10.22304229634648</v>
       </c>
       <c r="C180">
-        <v>10.55780032361586</v>
+        <v>10.65345521314269</v>
       </c>
       <c r="D180">
-        <v>10.84077508468044</v>
+        <v>10.2243699379045</v>
       </c>
       <c r="E180">
-        <v>10.93962171089254</v>
+        <v>10.35825142445604</v>
       </c>
       <c r="F180">
-        <v>10.44160565446704</v>
+        <v>10.37546194929294</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.73293486140404</v>
+        <v>10.16545853832835</v>
       </c>
       <c r="C181">
-        <v>10.50171509823015</v>
+        <v>10.59996548845166</v>
       </c>
       <c r="D181">
-        <v>10.78538297622853</v>
+        <v>10.16752591382733</v>
       </c>
       <c r="E181">
-        <v>10.88734693970698</v>
+        <v>10.29980457331529</v>
       </c>
       <c r="F181">
-        <v>10.38494661398059</v>
+        <v>10.31689692331302</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.68010988867313</v>
+        <v>10.10786044295644</v>
       </c>
       <c r="C182">
-        <v>10.44559138647921</v>
+        <v>10.54629360820651</v>
       </c>
       <c r="D182">
-        <v>10.72985550124691</v>
+        <v>10.11064845961846</v>
       </c>
       <c r="E182">
-        <v>10.834844250253</v>
+        <v>10.2413401703143</v>
       </c>
       <c r="F182">
-        <v>10.32824806914275</v>
+        <v>10.2583142969914</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.62708964212131</v>
+        <v>10.05025152934953</v>
       </c>
       <c r="C183">
-        <v>10.38943379696192</v>
+        <v>10.49244699381878</v>
       </c>
       <c r="D183">
-        <v>10.67419955757699</v>
+        <v>10.05374168683791</v>
       </c>
       <c r="E183">
-        <v>10.7821223602692</v>
+        <v>10.18286193607295</v>
       </c>
       <c r="F183">
-        <v>10.27151459903738</v>
+        <v>10.19971780398879</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.57388205474068</v>
+        <v>9.992635142400768</v>
       </c>
       <c r="C184">
-        <v>10.33324670149341</v>
+        <v>10.43843282670694</v>
       </c>
       <c r="D184">
-        <v>10.61842182421367</v>
+        <v>9.996809503415392</v>
       </c>
       <c r="E184">
-        <v>10.72918974038287</v>
+        <v>10.12437341283158</v>
       </c>
       <c r="F184">
-        <v>10.21475056373891</v>
+        <v>10.14111098859587</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.52049481228519</v>
+        <v>9.935014461268757</v>
       </c>
       <c r="C185">
-        <v>10.27703432265393</v>
+        <v>10.38425809098243</v>
       </c>
       <c r="D185">
-        <v>10.56252873003455</v>
+        <v>9.939855646270269</v>
       </c>
       <c r="E185">
-        <v>10.67605461834481</v>
+        <v>10.06587796050583</v>
       </c>
       <c r="F185">
-        <v>10.15796011764467</v>
+        <v>10.08249722594546</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.46693536090867</v>
+        <v>9.877392507455129</v>
       </c>
       <c r="C186">
-        <v>10.22080067426877</v>
+        <v>10.32992955008688</v>
       </c>
       <c r="D186">
-        <v>10.50652646476121</v>
+        <v>9.882883688435262</v>
       </c>
       <c r="E186">
-        <v>10.62272496043433</v>
+        <v>10.00737877947354</v>
       </c>
       <c r="F186">
-        <v>10.10114723833224</v>
+        <v>10.02387971581216</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.41321091456968</v>
+        <v>9.819772152488532</v>
       </c>
       <c r="C187">
-        <v>10.16454957621076</v>
+        <v>10.27545373888607</v>
       </c>
       <c r="D187">
-        <v>10.4504210124266</v>
+        <v>9.82589702158479</v>
       </c>
       <c r="E187">
-        <v>10.56920845981528</v>
+        <v>9.948878903847401</v>
       </c>
       <c r="F187">
-        <v>10.04431570147814</v>
+        <v>9.965261507730457</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.35932846220684</v>
+        <v>9.762156125234313</v>
       </c>
       <c r="C188">
-        <v>10.10828470318389</v>
+        <v>10.22083701577822</v>
       </c>
       <c r="D188">
-        <v>10.39421813567871</v>
+        <v>9.768898900242823</v>
       </c>
       <c r="E188">
-        <v>10.51551263019279</v>
+        <v>9.890381224199881</v>
       </c>
       <c r="F188">
-        <v>9.987469125671447</v>
+        <v>9.90664549073573</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.30529477470668</v>
+        <v>9.704547018848022</v>
       </c>
       <c r="C189">
-        <v>10.05200955327045</v>
+        <v>10.16608553892411</v>
       </c>
       <c r="D189">
-        <v>10.33792338896177</v>
+        <v>9.71189242120442</v>
       </c>
       <c r="E189">
-        <v>10.46164474744841</v>
+        <v>9.831888480210424</v>
       </c>
       <c r="F189">
-        <v>9.930610957602809</v>
+        <v>9.848034418296502</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.25111641164713</v>
+        <v>9.646947297390463</v>
       </c>
       <c r="C190">
-        <v>9.995727461084369</v>
+        <v>10.11120526512135</v>
       </c>
       <c r="D190">
-        <v>10.28154213920405</v>
+        <v>9.654880534207607</v>
       </c>
       <c r="E190">
-        <v>10.40761182215603</v>
+        <v>9.773403281430632</v>
       </c>
       <c r="F190">
-        <v>9.873744478207103</v>
+        <v>9.789430901253462</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.19679972784563</v>
+        <v>9.589359302120217</v>
       </c>
       <c r="C191">
-        <v>9.939441630965467</v>
+        <v>10.05620197494656</v>
       </c>
       <c r="D191">
-        <v>10.22507955007808</v>
+        <v>9.597866064665038</v>
       </c>
       <c r="E191">
-        <v>10.35342069635472</v>
+        <v>9.714928102727812</v>
       </c>
       <c r="F191">
-        <v>9.816872830275564</v>
+        <v>9.730837422551884</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.14235087970203</v>
+        <v>9.531785257503927</v>
       </c>
       <c r="C192">
-        <v>9.883155115255018</v>
+        <v>10.00108127828978</v>
       </c>
       <c r="D192">
-        <v>10.16854060035343</v>
+        <v>9.540851695974148</v>
       </c>
       <c r="E192">
-        <v>10.29907800043676</v>
+        <v>9.656465297987783</v>
       </c>
       <c r="F192">
-        <v>9.759998999280459</v>
+        <v>9.67225634183009</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.08777583134662</v>
+        <v>9.474227277601443</v>
       </c>
       <c r="C193">
-        <v>9.826870827480809</v>
+        <v>9.945848604378655</v>
       </c>
       <c r="D193">
-        <v>10.11193010291188</v>
+        <v>9.483839996237069</v>
       </c>
       <c r="E193">
-        <v>10.24459015200624</v>
+        <v>9.598017099113346</v>
       </c>
       <c r="F193">
-        <v>9.703125841434566</v>
+        <v>9.613689897948296</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.03308036054892</v>
+        <v>9.416687370679147</v>
       </c>
       <c r="C194">
-        <v>9.770591568314956</v>
+        <v>9.890509203454334</v>
       </c>
       <c r="D194">
-        <v>10.05525268435601</v>
+        <v>9.426833414800807</v>
       </c>
       <c r="E194">
-        <v>10.18996336586108</v>
+        <v>9.539585626407552</v>
       </c>
       <c r="F194">
-        <v>9.646256081511531</v>
+        <v>9.555140222124132</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.978270064594685</v>
+        <v>9.359167445996901</v>
       </c>
       <c r="C195">
-        <v>9.714320000560189</v>
+        <v>9.835068184780646</v>
       </c>
       <c r="D195">
-        <v>9.998512810375319</v>
+        <v>9.369834280535461</v>
       </c>
       <c r="E195">
-        <v>10.1352036902303</v>
+        <v>9.481172902479919</v>
       </c>
       <c r="F195">
-        <v>9.589392311227808</v>
+        <v>9.496609333537316</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.923350365916288</v>
+        <v>9.301669310680083</v>
       </c>
       <c r="C196">
-        <v>9.658058664776055</v>
+        <v>9.77953049499069</v>
       </c>
       <c r="D196">
-        <v>9.941714793713395</v>
+        <v>9.31284482491953</v>
       </c>
       <c r="E196">
-        <v>10.08031698456367</v>
+        <v>9.422780843625347</v>
       </c>
       <c r="F196">
-        <v>9.532537013506827</v>
+        <v>9.438099155582895</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.868326517400268</v>
+        <v>9.244194686757043</v>
       </c>
       <c r="C197">
-        <v>9.601810007793929</v>
+        <v>9.723900903422072</v>
       </c>
       <c r="D197">
-        <v>9.884862778618938</v>
+        <v>9.255867169968175</v>
       </c>
       <c r="E197">
-        <v>10.02530890982091</v>
+        <v>9.364411256289223</v>
       </c>
       <c r="F197">
-        <v>9.47569254893787</v>
+        <v>9.379611503754241</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.813203607809495</v>
+        <v>9.186745206586806</v>
       </c>
       <c r="C198">
-        <v>9.545576354548265</v>
+        <v>9.668184058644163</v>
       </c>
       <c r="D198">
-        <v>9.827960769542958</v>
+        <v>9.198903339751574</v>
       </c>
       <c r="E198">
-        <v>9.97018498101548</v>
+        <v>9.306065885703612</v>
       </c>
       <c r="F198">
-        <v>9.418861172852626</v>
+        <v>9.321148113650445</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.757986566764066</v>
+        <v>9.129322420062913</v>
       </c>
       <c r="C199">
-        <v>9.489359926574409</v>
+        <v>9.612384458733402</v>
       </c>
       <c r="D199">
-        <v>9.771012629870688</v>
+        <v>9.141955270627552</v>
       </c>
       <c r="E199">
-        <v>9.914950541499454</v>
+        <v>9.247746387157324</v>
       </c>
       <c r="F199">
-        <v>9.36204503970743</v>
+        <v>9.262710635404119</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.702680169615142</v>
+        <v>9.071927802882831</v>
       </c>
       <c r="C200">
-        <v>9.433162859535161</v>
+        <v>9.556506452306426</v>
       </c>
       <c r="D200">
-        <v>9.714022071992465</v>
+        <v>9.085024798739898</v>
       </c>
       <c r="E200">
-        <v>9.859610763912764</v>
+        <v>9.189454282410162</v>
       </c>
       <c r="F200">
-        <v>9.305246197198874</v>
+        <v>9.20430062298618</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.647289042339505</v>
+        <v>9.014562752763002</v>
       </c>
       <c r="C201">
-        <v>9.376987183751103</v>
+        <v>9.500554256944826</v>
       </c>
       <c r="D201">
-        <v>9.656992686496736</v>
+        <v>9.028113684752178</v>
       </c>
       <c r="E201">
-        <v>9.804170666956908</v>
+        <v>9.131191075094575</v>
       </c>
       <c r="F201">
-        <v>9.248466607841518</v>
+        <v>9.145919557371299</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.591817666262697</v>
+        <v>8.957228596316739</v>
       </c>
       <c r="C202">
-        <v>9.320834841525661</v>
+        <v>9.444531965270807</v>
       </c>
       <c r="D202">
-        <v>9.599927933901192</v>
+        <v>8.971223604244249</v>
       </c>
       <c r="E202">
-        <v>9.74863512879733</v>
+        <v>9.072958181306555</v>
       </c>
       <c r="F202">
-        <v>9.191708138599703</v>
+        <v>9.08756886117866</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.536270382469509</v>
+        <v>8.899926593579771</v>
       </c>
       <c r="C203">
-        <v>9.26470769841508</v>
+        <v>9.388443538328003</v>
       </c>
       <c r="D203">
-        <v>9.542831140177402</v>
+        <v>8.914356150544313</v>
       </c>
       <c r="E203">
-        <v>9.693008875837624</v>
+        <v>9.0147569174724</v>
       </c>
       <c r="F203">
-        <v>9.13497257118004</v>
+        <v>9.029249876195834</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.480651396177491</v>
+        <v>8.842657943873673</v>
       </c>
       <c r="C204">
-        <v>9.208607529717876</v>
+        <v>9.332292808406208</v>
       </c>
       <c r="D204">
-        <v>9.48570552334583</v>
+        <v>8.857512849766511</v>
       </c>
       <c r="E204">
-        <v>9.637296472241969</v>
+        <v>8.956588548813407</v>
       </c>
       <c r="F204">
-        <v>9.078261609693991</v>
+        <v>8.970963843901634</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.424964780999751</v>
+        <v>8.785423782368833</v>
       </c>
       <c r="C205">
-        <v>9.152536036107469</v>
+        <v>9.27608349949913</v>
       </c>
       <c r="D205">
-        <v>9.428554183301866</v>
+        <v>8.800695150759751</v>
       </c>
       <c r="E205">
-        <v>9.581502371107501</v>
+        <v>8.898454285909956</v>
       </c>
       <c r="F205">
-        <v>9.021576872978869</v>
+        <v>8.912711989709495</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.369214483077791</v>
+        <v>8.728225185947354</v>
       </c>
       <c r="C206">
-        <v>9.096494850176487</v>
+        <v>9.21981921846443</v>
       </c>
       <c r="D206">
-        <v>9.371380099874353</v>
+        <v>8.743904436932521</v>
       </c>
       <c r="E206">
-        <v>9.525630885769999</v>
+        <v>8.840355265400019</v>
       </c>
       <c r="F206">
-        <v>8.964919912872066</v>
+        <v>8.854495467094372</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.313404324939453</v>
+        <v>8.671063177039052</v>
       </c>
       <c r="C207">
-        <v>9.040485525182616</v>
+        <v>9.16350344257124</v>
       </c>
       <c r="D207">
-        <v>9.314186156457229</v>
+        <v>8.687142028824164</v>
       </c>
       <c r="E207">
-        <v>9.469686181055536</v>
+        <v>8.782292557060558</v>
       </c>
       <c r="F207">
-        <v>8.908292206777297</v>
+        <v>8.796315336214921</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.257538009415793</v>
+        <v>8.61393872572345</v>
       </c>
       <c r="C208">
-        <v>8.984509551698602</v>
+        <v>9.107139560374931</v>
       </c>
       <c r="D208">
-        <v>9.256975129390623</v>
+        <v>8.630409179339638</v>
       </c>
       <c r="E208">
-        <v>9.413672307829676</v>
+        <v>8.724267192248783</v>
       </c>
       <c r="F208">
-        <v>8.85169516340277</v>
+        <v>8.738172634513997</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.201619123439212</v>
+        <v>8.556852751643058</v>
       </c>
       <c r="C209">
-        <v>8.928568361020178</v>
+        <v>9.050730850749614</v>
       </c>
       <c r="D209">
-        <v>9.199749688237935</v>
+        <v>8.573707088375977</v>
       </c>
       <c r="E209">
-        <v>9.357593199407571</v>
+        <v>8.666280144338961</v>
       </c>
       <c r="F209">
-        <v>8.795130131516462</v>
+        <v>8.680068343163409</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.145651141581164</v>
+        <v>8.499806127835228</v>
       </c>
       <c r="C210">
-        <v>8.872663314160604</v>
+        <v>8.994280481991728</v>
       </c>
       <c r="D210">
-        <v>9.142512415805061</v>
+        <v>8.517036896502221</v>
       </c>
       <c r="E210">
-        <v>9.301452664361308</v>
+        <v>8.608332331489661</v>
       </c>
       <c r="F210">
-        <v>8.738598392203796</v>
+        <v>8.622003382794242</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.089637429567258</v>
+        <v>8.442799679957728</v>
       </c>
       <c r="C211">
-        <v>8.81679571977863</v>
+        <v>8.937791526029757</v>
       </c>
       <c r="D211">
-        <v>9.085265797876799</v>
+        <v>8.460399688974222</v>
       </c>
       <c r="E211">
-        <v>9.245254388093128</v>
+        <v>8.55042463379818</v>
       </c>
       <c r="F211">
-        <v>8.682101173802563</v>
+        <v>8.563978621598162</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.033581247677741</v>
+        <v>8.385834192263891</v>
       </c>
       <c r="C212">
-        <v>8.76096683440959</v>
+        <v>8.881266965097025</v>
       </c>
       <c r="D212">
-        <v>9.028012226055901</v>
+        <v>8.403796503786252</v>
       </c>
       <c r="E212">
-        <v>9.189001958164535</v>
+        <v>8.492557886840427</v>
       </c>
       <c r="F212">
-        <v>8.625639646689596</v>
+        <v>8.505994895947994</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8.977485754130043</v>
+        <v>8.328910407307671</v>
       </c>
       <c r="C213">
-        <v>8.705177852497712</v>
+        <v>8.824709683567557</v>
       </c>
       <c r="D213">
-        <v>8.970754013115366</v>
+        <v>8.347228324602311</v>
       </c>
       <c r="E213">
-        <v>9.132698851157006</v>
+        <v>8.434732865634137</v>
       </c>
       <c r="F213">
-        <v>8.569214926186136</v>
+        <v>8.448052994565638</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8.921354008130326</v>
+        <v>8.272029029270817</v>
       </c>
       <c r="C214">
-        <v>8.649429924872626</v>
+        <v>8.768122468025725</v>
       </c>
       <c r="D214">
-        <v>8.913493384131275</v>
+        <v>8.29069609205521</v>
       </c>
       <c r="E214">
-        <v>9.076348429734519</v>
+        <v>8.376950319917157</v>
       </c>
       <c r="F214">
-        <v>8.512828081152431</v>
+        <v>8.390153660284739</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8.865188973031918</v>
+        <v>8.215190725712432</v>
       </c>
       <c r="C215">
-        <v>8.593724156143494</v>
+        <v>8.711508029168865</v>
       </c>
       <c r="D215">
-        <v>8.85623248144435</v>
+        <v>8.234200701606325</v>
       </c>
       <c r="E215">
-        <v>9.019953965955983</v>
+        <v>8.319210962036538</v>
       </c>
       <c r="F215">
-        <v>8.456480127412302</v>
+        <v>8.332297605665511</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8.808993519374052</v>
+        <v>8.158396129362535</v>
       </c>
       <c r="C216">
-        <v>8.538061597133748</v>
+        <v>8.654868990275491</v>
       </c>
       <c r="D216">
-        <v>8.798973375574024</v>
+        <v>8.177743002670026</v>
       </c>
       <c r="E216">
-        <v>8.963518633329858</v>
+        <v>8.261515457034262</v>
       </c>
       <c r="F216">
-        <v>8.400172038484174</v>
+        <v>8.274485506610283</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8.752770427746954</v>
+        <v>8.101645839100822</v>
       </c>
       <c r="C217">
-        <v>8.482443261936671</v>
+        <v>8.598207881646781</v>
       </c>
       <c r="D217">
-        <v>8.741718057775639</v>
+        <v>8.121323808089022</v>
       </c>
       <c r="E217">
-        <v>8.907045503973492</v>
+        <v>8.203864431233052</v>
       </c>
       <c r="F217">
-        <v>8.343904742067084</v>
+        <v>8.216717990129597</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8.696522391592287</v>
+        <v>8.044940421974756</v>
       </c>
       <c r="C218">
-        <v>8.426870123730607</v>
+        <v>8.541527165882385</v>
       </c>
       <c r="D218">
-        <v>8.684468446809683</v>
+        <v>8.064943888970621</v>
       </c>
       <c r="E218">
-        <v>8.850537553915496</v>
+        <v>8.146258489176395</v>
       </c>
       <c r="F218">
-        <v>8.287679120009376</v>
+        <v>8.158995658843448</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8.64025201993854</v>
+        <v>7.988280414598703</v>
       </c>
       <c r="C219">
-        <v>8.371343109292274</v>
+        <v>8.484829225796156</v>
       </c>
       <c r="D219">
-        <v>8.627226396035077</v>
+        <v>8.008603979269541</v>
       </c>
       <c r="E219">
-        <v>8.793997681820954</v>
+        <v>8.088698198975585</v>
       </c>
       <c r="F219">
-        <v>8.231496022073005</v>
+        <v>8.101319088538482</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8.58396184012285</v>
+        <v>7.931666324666895</v>
       </c>
       <c r="C220">
-        <v>8.315863114636857</v>
+        <v>8.428116364316212</v>
       </c>
       <c r="D220">
-        <v>8.569993686974863</v>
+        <v>7.952304779425481</v>
       </c>
       <c r="E220">
-        <v>8.737428696238851</v>
+        <v>8.031184096290605</v>
       </c>
       <c r="F220">
-        <v>8.175356260684502</v>
+        <v>8.04368881756635</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8.527654300265407</v>
+        <v>7.87509863246426</v>
       </c>
       <c r="C221">
-        <v>8.260430999754689</v>
+        <v>8.371390812886405</v>
       </c>
       <c r="D221">
-        <v>8.51277203790889</v>
+        <v>7.896046948616308</v>
       </c>
       <c r="E221">
-        <v>8.680833308006385</v>
+        <v>7.973716692679482</v>
       </c>
       <c r="F221">
-        <v>8.119260604903705</v>
+        <v>7.986105345868381</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8.471331771776054</v>
+        <v>7.818577792406646</v>
       </c>
       <c r="C222">
-        <v>8.205047584580846</v>
+        <v>8.314654737314671</v>
       </c>
       <c r="D222">
-        <v>8.45556310747207</v>
+        <v>7.839831121544933</v>
       </c>
       <c r="E222">
-        <v>8.62421416281393</v>
+        <v>7.916296472868152</v>
       </c>
       <c r="F222">
-        <v>8.06320978783341</v>
+        <v>7.928569160910782</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>8.414996551796163</v>
+        <v>7.762104234019682</v>
       </c>
       <c r="C223">
-        <v>8.149713663483038</v>
+        <v>8.257910232236666</v>
       </c>
       <c r="D223">
-        <v>8.398368489051734</v>
+        <v>7.783657901637948</v>
       </c>
       <c r="E223">
-        <v>8.567573823635515</v>
+        <v>7.858923881574</v>
       </c>
       <c r="F223">
-        <v>8.007204525591556</v>
+        <v>7.871080719300346</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8.358650865523305</v>
+        <v>7.705678363596666</v>
       </c>
       <c r="C224">
-        <v>8.094429999199784</v>
+        <v>8.201159320470115</v>
       </c>
       <c r="D224">
-        <v>8.341189721217299</v>
+        <v>7.727527864488108</v>
       </c>
       <c r="E224">
-        <v>8.510914770338569</v>
+        <v>7.801599352885459</v>
       </c>
       <c r="F224">
-        <v>7.951245501767898</v>
+        <v>7.813640450085826</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8.302296868439594</v>
+        <v>7.649300564713717</v>
       </c>
       <c r="C225">
-        <v>8.039197320129929</v>
+        <v>8.144403969574091</v>
       </c>
       <c r="D225">
-        <v>8.284028287899551</v>
+        <v>7.671441539574996</v>
       </c>
       <c r="E225">
-        <v>8.454239410142616</v>
+        <v>7.744323294533334</v>
       </c>
       <c r="F225">
-        <v>7.895333348965334</v>
+        <v>7.756248763042529</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8.245936648527049</v>
+        <v>7.592971199850542</v>
       </c>
       <c r="C226">
-        <v>7.98401633306548</v>
+        <v>8.087646083340958</v>
       </c>
       <c r="D226">
-        <v>8.226885613778544</v>
+        <v>7.615399453721663</v>
       </c>
       <c r="E226">
-        <v>8.397550083925577</v>
+        <v>7.687096088599435</v>
       </c>
       <c r="F226">
-        <v>7.839468680829724</v>
+        <v>7.698906045781682</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>8.189572228441582</v>
+        <v>7.536690611047698</v>
       </c>
       <c r="C227">
-        <v>7.928887717497326</v>
+        <v>8.030887496583979</v>
       </c>
       <c r="D227">
-        <v>8.169763076317782</v>
+        <v>7.55940210338968</v>
       </c>
       <c r="E227">
-        <v>8.340849059999112</v>
+        <v>7.629918096752136</v>
       </c>
       <c r="F227">
-        <v>7.783652099527646</v>
+        <v>7.64161265795243</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>8.133205567511233</v>
+        <v>7.480459121066291</v>
       </c>
       <c r="C228">
-        <v>7.873812123528875</v>
+        <v>7.974129995313992</v>
       </c>
       <c r="D228">
-        <v>8.11266200249808</v>
+        <v>7.503449962826736</v>
       </c>
       <c r="E228">
-        <v>8.284138532241506</v>
+        <v>7.572789663705248</v>
       </c>
       <c r="F228">
-        <v>7.72788417709125</v>
+        <v>7.584368939521728</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8.076838563754025</v>
+        <v>7.42427703440872</v>
       </c>
       <c r="C229">
-        <v>7.818790182984798</v>
+        <v>7.917375307282517</v>
       </c>
       <c r="D229">
-        <v>8.055583666412893</v>
+        <v>7.447543448642996</v>
       </c>
       <c r="E229">
-        <v>8.227420638782627</v>
+        <v>7.515711112170994</v>
       </c>
       <c r="F229">
-        <v>7.672165439096516</v>
+        <v>7.527175217221101</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8.020473055826777</v>
+        <v>7.368144638056036</v>
       </c>
       <c r="C230">
-        <v>7.763822504207369</v>
+        <v>7.86062510158574</v>
       </c>
       <c r="D230">
-        <v>7.998529300449211</v>
+        <v>7.391682997849076</v>
       </c>
       <c r="E230">
-        <v>8.170697452411328</v>
+        <v>7.45868274122013</v>
       </c>
       <c r="F230">
-        <v>7.616496406312374</v>
+        <v>7.470031796587687</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7.964110824926773</v>
+        <v>7.312062202591636</v>
       </c>
       <c r="C231">
-        <v>7.708909670666038</v>
+        <v>7.803880994480539</v>
       </c>
       <c r="D231">
-        <v>7.941500090936682</v>
+        <v>7.335869014046825</v>
       </c>
       <c r="E231">
-        <v>8.113970978142973</v>
+        <v>7.401704840545747</v>
       </c>
       <c r="F231">
-        <v>7.560877579907964</v>
+        <v>7.412938962257622</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7.907753596546346</v>
+        <v>7.256029982693755</v>
       </c>
       <c r="C232">
-        <v>7.654052250292525</v>
+        <v>7.747144554811777</v>
       </c>
       <c r="D232">
-        <v>7.884497177398302</v>
+        <v>7.280101881956369</v>
       </c>
       <c r="E232">
-        <v>8.057243166547753</v>
+        <v>7.344777681044998</v>
       </c>
       <c r="F232">
-        <v>7.505309438244692</v>
+        <v>7.355896987760763</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7.851403042154974</v>
+        <v>7.200048218024845</v>
       </c>
       <c r="C233">
-        <v>7.599250790977148</v>
+        <v>7.690417299295135</v>
       </c>
       <c r="D233">
-        <v>7.827521661796188</v>
+        <v>7.224381940223387</v>
       </c>
       <c r="E233">
-        <v>8.000515912296867</v>
+        <v>7.287901513299174</v>
       </c>
       <c r="F233">
-        <v>7.449792424629388</v>
+        <v>7.298906130188548</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7.795060781359348</v>
+        <v>7.14411713403298</v>
       </c>
       <c r="C234">
-        <v>7.544505819803599</v>
+        <v>7.633700691805058</v>
       </c>
       <c r="D234">
-        <v>7.770574604524226</v>
+        <v>7.168709541051538</v>
       </c>
       <c r="E234">
-        <v>7.943791051673135</v>
+        <v>7.231076578336052</v>
       </c>
       <c r="F234">
-        <v>7.394326980424351</v>
+        <v>7.241966624113441</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7.738728382704902</v>
+        <v>7.088236942629413</v>
       </c>
       <c r="C235">
-        <v>7.48981785066815</v>
+        <v>7.57699615587812</v>
       </c>
       <c r="D235">
-        <v>7.713657024526269</v>
+        <v>7.113085009067346</v>
       </c>
       <c r="E235">
-        <v>7.887070362948593</v>
+        <v>7.174303101996061</v>
       </c>
       <c r="F235">
-        <v>7.338913525190156</v>
+        <v>7.1850786963819</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7.682407366693659</v>
+        <v>7.032407842822767</v>
       </c>
       <c r="C236">
-        <v>7.435187380531797</v>
+        <v>7.520305068332372</v>
       </c>
       <c r="D236">
-        <v>7.656769906891446</v>
+        <v>7.057508652634523</v>
       </c>
       <c r="E236">
-        <v>7.830355579583132</v>
+        <v>7.117581292770735</v>
       </c>
       <c r="F236">
-        <v>7.283552461804098</v>
+        <v>7.12824256005729</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7.626099205630581</v>
+        <v>6.976630021358157</v>
       </c>
       <c r="C237">
-        <v>7.380614889089311</v>
+        <v>7.463628756222803</v>
       </c>
       <c r="D237">
-        <v>7.599914199160794</v>
+        <v>7.001980749483173</v>
       </c>
       <c r="E237">
-        <v>7.773648383018413</v>
+        <v>7.060911348271126</v>
       </c>
       <c r="F237">
-        <v>7.228244174357016</v>
+        <v>7.071458413373411</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7.569805326676854</v>
+        <v>6.920903653400045</v>
       </c>
       <c r="C238">
-        <v>7.326100845012377</v>
+        <v>7.406968509925695</v>
       </c>
       <c r="D238">
-        <v>7.543090812280067</v>
+        <v>6.946501579057026</v>
       </c>
       <c r="E238">
-        <v>7.716950397899693</v>
+        <v>7.004293455513888</v>
       </c>
       <c r="F238">
-        <v>7.172989037251411</v>
+        <v>7.014726441357707</v>
       </c>
     </row>
   </sheetData>
